--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\노민\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B764D8ED-72D6-4C69-BDD1-C709520BB562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172F96A3-E319-4CF3-A298-79CFC176FB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="1455" windowWidth="29625" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Tile_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,14 @@
   </si>
   <si>
     <t>Bishop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0B6F6-72BE-4042-9DBD-113B2542E50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BJ4" sqref="BJ4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BC24" sqref="BC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -740,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -812,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -878,10 +886,10 @@
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
       <c r="BI4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -943,6 +951,12 @@
       <c r="BB5" s="3"/>
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
+      <c r="BI5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1873,7 +1887,9 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
+      <c r="AA21" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -1938,7 +1954,9 @@
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
+      <c r="AF22" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
@@ -2051,7 +2069,9 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
+      <c r="Y24" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
@@ -2118,7 +2138,9 @@
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
+      <c r="AF25" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="3"/>
@@ -2169,7 +2191,9 @@
       <c r="T26" s="3"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="W26" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -2234,7 +2258,9 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
+      <c r="AB27" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
@@ -2290,7 +2316,9 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
+      <c r="X28" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
@@ -2415,7 +2443,9 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
+      <c r="AC30" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
@@ -2472,7 +2502,9 @@
       <c r="W31" s="3"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
+      <c r="Z31" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -2536,9 +2568,13 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
+      <c r="AD32" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
+      <c r="AF32" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="AG32" s="4"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
@@ -2654,7 +2690,9 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
+      <c r="AB34" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="AC34" s="4"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\노민\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172F96A3-E319-4CF3-A298-79CFC176FB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A97763C-E391-4AEF-A723-4A6156239900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="1455" windowWidth="29625" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Tile_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,30 @@
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Tile_Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tile_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tile_Ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF6ED749</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF3FCDFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF744A0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -127,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +173,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDE7FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF744A0C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6ED749"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FCDFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +236,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -202,6 +253,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3FCDFF"/>
+      <color rgb="FF6ED749"/>
+      <color rgb="FF744A0C"/>
       <color rgb="FFFDE7FB"/>
       <color rgb="FFFEF4FD"/>
       <color rgb="FFB17ED8"/>
@@ -484,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0B6F6-72BE-4042-9DBD-113B2542E50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BC24" sqref="BC24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR26" sqref="AR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -885,6 +939,12 @@
       <c r="BB4" s="3"/>
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
+      <c r="BF4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="BI4" s="2" t="s">
         <v>10</v>
       </c>
@@ -951,6 +1011,12 @@
       <c r="BB5" s="3"/>
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
+      <c r="BF5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="BI5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1017,6 +1083,12 @@
       <c r="BB6" s="3"/>
       <c r="BC6" s="3"/>
       <c r="BD6" s="3"/>
+      <c r="BF6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1885,14 +1957,14 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="Y21" s="7"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
@@ -1946,12 +2018,12 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="7"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
+      <c r="AC22" s="6"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4" t="s">
@@ -2007,17 +2079,17 @@
       <c r="T23" s="3"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
       <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="6"/>
       <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="7"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
@@ -2067,19 +2139,19 @@
       <c r="T24" s="3"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="7"/>
       <c r="Y24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
       <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="5"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
@@ -2128,20 +2200,20 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="6"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="5"/>
       <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
+      <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4" t="s">
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AG25" s="4"/>
+      <c r="AG25" s="7"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
@@ -2190,20 +2262,20 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="V26" s="7"/>
       <c r="W26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="5"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="5"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
@@ -2252,20 +2324,20 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
       <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="5"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
@@ -2319,14 +2391,14 @@
       <c r="X28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Y28" s="4"/>
+      <c r="Y28" s="6"/>
       <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
+      <c r="AA28" s="7"/>
       <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
+      <c r="AC28" s="5"/>
       <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
       <c r="AI28" s="3"/>
@@ -2376,16 +2448,16 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="5"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="Y29" s="7"/>
       <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
@@ -2437,17 +2509,17 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="7"/>
       <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4" t="s">
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="3"/>
@@ -2500,16 +2572,16 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="4"/>
+      <c r="X31" s="7"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="3"/>
@@ -2564,10 +2636,10 @@
       <c r="W32" s="3"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
+      <c r="Z32" s="5"/>
       <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
       <c r="AD32" s="4" t="s">
         <v>12</v>
       </c>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\노민\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A97763C-E391-4AEF-A723-4A6156239900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9054D9-7D5D-445C-97B6-F90B52925790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0B6F6-72BE-4042-9DBD-113B2542E50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR26" sqref="AR26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1414,18 +1414,18 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
@@ -1474,18 +1474,18 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
@@ -1536,18 +1536,18 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
@@ -1596,18 +1596,18 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
@@ -1655,17 +1655,17 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
@@ -1715,11 +1715,11 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -1958,11 +1958,11 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="4"/>
+      <c r="Z21" s="7"/>
       <c r="AA21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AB21" s="4"/>
+      <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="4"/>
@@ -1974,7 +1974,7 @@
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
+      <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
@@ -2022,10 +2022,10 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="6"/>
       <c r="AF22" s="4" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
+      <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
@@ -2085,8 +2085,8 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="4"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="6"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="7"/>
@@ -2095,8 +2095,8 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
@@ -2141,7 +2141,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="6"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="4" t="s">
+      <c r="Y24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Z24" s="4"/>
@@ -2156,9 +2156,9 @@
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="3"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
@@ -2203,12 +2203,12 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="4"/>
+      <c r="Y25" s="6"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="4"/>
+      <c r="AB25" s="7"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="4"/>
+      <c r="AD25" s="5"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="5" t="s">
         <v>12</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
+      <c r="Z26" s="5"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="5"/>
@@ -2324,16 +2324,16 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="5"/>
+      <c r="V27" s="7"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="4"/>
+      <c r="X27" s="7"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
-      <c r="AA27" s="4"/>
+      <c r="AA27" s="5"/>
       <c r="AB27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AC27" s="4"/>
+      <c r="AC27" s="7"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="7"/>
@@ -2387,16 +2387,16 @@
       <c r="T28" s="3"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4" t="s">
+      <c r="W28" s="7"/>
+      <c r="X28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y28" s="6"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="4"/>
+      <c r="AB28" s="7"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="4"/>
+      <c r="AD28" s="5"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="4"/>
@@ -2452,10 +2452,10 @@
       <c r="W29" s="5"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="4"/>
+      <c r="Z29" s="7"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
+      <c r="AC29" s="7"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="4"/>
@@ -2512,15 +2512,15 @@
       <c r="W30" s="7"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="4"/>
+      <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AD30" s="6"/>
+      <c r="AD30" s="7"/>
       <c r="AE30" s="6"/>
-      <c r="AF30" s="4"/>
+      <c r="AF30" s="5"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
@@ -2573,16 +2573,16 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="4"/>
+      <c r="Y31" s="6"/>
       <c r="Z31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AA31" s="4"/>
+      <c r="AA31" s="6"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="4"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="5"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
@@ -2637,13 +2637,13 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="4"/>
+      <c r="AA32" s="6"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
-      <c r="AD32" s="4" t="s">
+      <c r="AD32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AE32" s="4"/>
+      <c r="AE32" s="5"/>
       <c r="AF32" s="4" t="s">
         <v>10</v>
       </c>
@@ -2701,12 +2701,12 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
@@ -2761,11 +2761,11 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4" t="s">
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AC34" s="4"/>
+      <c r="AC34" s="6"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
@@ -2824,8 +2824,8 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\노민\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9054D9-7D5D-445C-97B6-F90B52925790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDB81A5-9D6B-483F-8481-75B94AD9CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Tile_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,18 +46,6 @@
     <t>FFA162D0</t>
   </si>
   <si>
-    <t>Mob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tile_Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,19 +53,7 @@
     <t>FFFDE7FB</t>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bishop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,6 +86,42 @@
   </si>
   <si>
     <t>FF744A0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_Knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_Bishop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,25 +550,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0B6F6-72BE-4042-9DBD-113B2542E50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BJ14" sqref="BJ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.625" style="2"/>
-    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.58203125" style="2"/>
+    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.625" style="2"/>
+    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -733,10 +745,10 @@
         <v>3</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -802,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -868,19 +880,19 @@
       <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
       <c r="BF3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -940,19 +952,19 @@
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
       <c r="BF4" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1012,19 +1024,19 @@
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
       <c r="BF5" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1084,13 +1096,19 @@
       <c r="BC6" s="3"/>
       <c r="BD6" s="3"/>
       <c r="BF6" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BG6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1150,7 +1168,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1210,7 +1228,7 @@
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1270,7 +1288,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1330,7 +1348,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1390,7 +1408,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1450,7 +1468,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1510,7 +1528,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1570,7 +1588,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1630,7 +1648,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1690,7 +1708,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1750,7 +1768,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1810,7 +1828,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1870,7 +1888,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1930,7 +1948,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1960,7 +1978,7 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
@@ -1992,7 +2010,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2027,7 +2045,7 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="6"/>
       <c r="AF22" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
@@ -2054,7 +2072,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2114,7 +2132,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2142,7 +2160,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="7"/>
@@ -2176,7 +2194,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2211,7 +2229,7 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AG25" s="7"/>
       <c r="AH25" s="4"/>
@@ -2238,7 +2256,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2264,7 +2282,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="7"/>
       <c r="W26" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="7"/>
@@ -2300,7 +2318,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2331,7 +2349,7 @@
       <c r="Z27" s="6"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AC27" s="7"/>
       <c r="AD27" s="5"/>
@@ -2362,7 +2380,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2389,7 +2407,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="7"/>
       <c r="X28" s="6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Y28" s="6"/>
       <c r="Z28" s="4"/>
@@ -2424,7 +2442,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2484,7 +2502,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2516,7 +2534,7 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AD30" s="7"/>
       <c r="AE30" s="6"/>
@@ -2546,7 +2564,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2575,7 +2593,7 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA31" s="6"/>
       <c r="AB31" s="7"/>
@@ -2608,7 +2626,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2641,11 +2659,11 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE32" s="5"/>
       <c r="AF32" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AG32" s="4"/>
       <c r="AH32" s="3"/>
@@ -2672,7 +2690,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2732,7 +2750,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2763,7 +2781,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AC34" s="6"/>
       <c r="AD34" s="3"/>
@@ -2794,7 +2812,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2823,7 +2841,9 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="4"/>
+      <c r="AA35" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="3"/>
@@ -2854,7 +2874,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2914,7 +2934,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2974,7 +2994,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\노민\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDB81A5-9D6B-483F-8481-75B94AD9CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E65518-5C2C-4D91-9E0B-904F17693815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Tile_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,9 @@
   <si>
     <t>Enemy_Bishop</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_S</t>
   </si>
 </sst>
 </file>
@@ -550,25 +553,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0B6F6-72BE-4042-9DBD-113B2542E50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BJ14" sqref="BJ14"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ37" sqref="AJ37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.58203125" style="2"/>
-    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.58203125" style="2"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -748,7 +751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -820,7 +823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -892,7 +895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -964,7 +967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1168,7 +1171,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1228,7 +1231,7 @@
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1288,7 +1291,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1348,7 +1351,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1408,7 +1411,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1468,7 +1471,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1528,7 +1531,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1588,7 +1591,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1648,7 +1651,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1708,7 +1711,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1768,7 +1771,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1828,7 +1831,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1888,7 +1891,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1948,7 +1951,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2010,7 +2013,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2072,7 +2075,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2132,7 +2135,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2194,7 +2197,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2256,7 +2259,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2318,7 +2321,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2380,7 +2383,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2442,7 +2445,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2502,7 +2505,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2564,7 +2567,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2626,7 +2629,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2690,7 +2693,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2750,7 +2753,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2783,7 +2786,9 @@
       <c r="AB34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AC34" s="6"/>
+      <c r="AC34" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
@@ -2812,7 +2817,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2841,9 +2846,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="AA35" s="4"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="3"/>
@@ -2874,7 +2877,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2934,7 +2937,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2994,7 +2997,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\노민\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E65518-5C2C-4D91-9E0B-904F17693815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC2125F-EC3D-4FB8-B4FC-570E0C261FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Map1" sheetId="2" r:id="rId1"/>
+    <sheet name="Map0" sheetId="2" r:id="rId1"/>
+    <sheet name="Map1" sheetId="4" r:id="rId2"/>
+    <sheet name="Map2" sheetId="5" r:id="rId3"/>
+    <sheet name="Map3" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="26">
   <si>
     <t>Tile_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0B6F6-72BE-4042-9DBD-113B2542E50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ37" sqref="AJ37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AM36" sqref="AM36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1681,6 +1684,2499 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+    </row>
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+    </row>
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+    </row>
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+    </row>
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+    </row>
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+    </row>
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+    </row>
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+    </row>
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+    </row>
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+    </row>
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+    </row>
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+    </row>
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+    </row>
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+    </row>
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+    </row>
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+    </row>
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+    </row>
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+    </row>
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+    </row>
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+    </row>
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+    </row>
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+    </row>
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DF3298-13D4-4045-8040-A2E2F5BA5AAA}">
+  <dimension ref="A1:BJ38"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL41" sqref="AL41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
+    <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
+    <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BF2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BF3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BF4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BF5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BF6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+    </row>
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+    </row>
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+    </row>
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+    </row>
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+    </row>
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+    </row>
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+    </row>
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+    </row>
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+    </row>
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="3"/>
@@ -3062,4 +5558,5032 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4F3AFD-AA8C-4369-BA24-749169117A0C}">
+  <dimension ref="A1:BJ38"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
+    <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
+    <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BF2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BF3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BF4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BF5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BF6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+    </row>
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+    </row>
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+    </row>
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+    </row>
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+    </row>
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+    </row>
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+    </row>
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+    </row>
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+    </row>
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+    </row>
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+    </row>
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+    </row>
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+    </row>
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+    </row>
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+    </row>
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+    </row>
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+    </row>
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+    </row>
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+    </row>
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+    </row>
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+    </row>
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+    </row>
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+    </row>
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+    </row>
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+    </row>
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+    </row>
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+    </row>
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+    </row>
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+    </row>
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+    </row>
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+    </row>
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6170D9C-7F44-4B58-BBB3-71B20EF69F7F}">
+  <dimension ref="A1:BJ38"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
+    <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
+    <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BF2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BF3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BF4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BF5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BF6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+    </row>
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+    </row>
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+    </row>
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+    </row>
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+    </row>
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+    </row>
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+    </row>
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+    </row>
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+    </row>
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+    </row>
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+    </row>
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+    </row>
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+    </row>
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+    </row>
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+    </row>
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+    </row>
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+    </row>
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+    </row>
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+    </row>
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+    </row>
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+    </row>
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+    </row>
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+    </row>
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+    </row>
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+    </row>
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+    </row>
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+    </row>
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+    </row>
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+    </row>
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+    </row>
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+    </row>
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\노민\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC2125F-EC3D-4FB8-B4FC-570E0C261FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2DB3B9-B962-44A6-97C2-FFC4862E7579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1160" yWindow="1600" windowWidth="29060" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map0" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="27">
   <si>
     <t>Tile_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>I_S</t>
+  </si>
+  <si>
+    <t>Tile Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,25 +560,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0B6F6-72BE-4042-9DBD-113B2542E50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM36" sqref="AM36"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BG10" sqref="BG10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.625" style="2"/>
-    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.58203125" style="2"/>
+    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.625" style="2"/>
+    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -754,7 +758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -826,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -898,7 +902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -970,7 +974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1174,7 +1178,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1233,8 +1237,11 @@
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
-    </row>
-    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1294,7 +1301,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1354,7 +1361,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1414,7 +1421,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1474,7 +1481,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1534,7 +1541,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1594,7 +1601,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1654,7 +1661,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1714,7 +1721,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1774,7 +1781,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1834,7 +1841,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1894,7 +1901,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1954,7 +1961,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2014,7 +2021,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2074,7 +2081,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2134,7 +2141,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2194,7 +2201,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2254,7 +2261,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2314,7 +2321,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2374,7 +2381,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2434,7 +2441,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2494,7 +2501,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2554,7 +2561,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2614,7 +2621,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2676,7 +2683,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2736,7 +2743,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2796,7 +2803,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2858,7 +2865,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2918,7 +2925,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2978,7 +2985,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3053,21 +3060,21 @@
       <selection activeCell="AL41" sqref="AL41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.625" style="2"/>
-    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.58203125" style="2"/>
+    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.625" style="2"/>
+    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -3247,7 +3254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3319,7 +3326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3391,7 +3398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3463,7 +3470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3535,7 +3542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3607,7 +3614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3667,7 +3674,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3727,7 +3734,7 @@
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3787,7 +3794,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3847,7 +3854,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3907,7 +3914,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3967,7 +3974,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4027,7 +4034,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4087,7 +4094,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4147,7 +4154,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4207,7 +4214,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4267,7 +4274,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4327,7 +4334,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4387,7 +4394,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4447,7 +4454,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4509,7 +4516,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4571,7 +4578,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4631,7 +4638,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4693,7 +4700,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4755,7 +4762,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4817,7 +4824,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4879,7 +4886,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4941,7 +4948,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5001,7 +5008,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5063,7 +5070,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5125,7 +5132,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5189,7 +5196,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5249,7 +5256,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5313,7 +5320,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5373,7 +5380,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5433,7 +5440,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5493,7 +5500,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5568,21 +5575,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="30" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.625" style="2"/>
-    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.58203125" style="2"/>
+    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.625" style="2"/>
+    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -5762,7 +5769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5834,7 +5841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5906,7 +5913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5978,7 +5985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6050,7 +6057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6122,7 +6129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6182,7 +6189,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6242,7 +6249,7 @@
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6302,7 +6309,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6362,7 +6369,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6422,7 +6429,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6482,7 +6489,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6542,7 +6549,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6602,7 +6609,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6662,7 +6669,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6722,7 +6729,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6782,7 +6789,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6842,7 +6849,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6902,7 +6909,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6962,7 +6969,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7024,7 +7031,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7086,7 +7093,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7146,7 +7153,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7208,7 +7215,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7270,7 +7277,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7332,7 +7339,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7394,7 +7401,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7456,7 +7463,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7516,7 +7523,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7578,7 +7585,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7640,7 +7647,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7704,7 +7711,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7764,7 +7771,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7828,7 +7835,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7888,7 +7895,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7948,7 +7955,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8008,7 +8015,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8082,21 +8089,21 @@
       <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="30" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.625" style="2"/>
-    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.58203125" style="2"/>
+    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.625" style="2"/>
+    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -8276,7 +8283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8348,7 +8355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8420,7 +8427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8492,7 +8499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8564,7 +8571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8636,7 +8643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8696,7 +8703,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8756,7 +8763,7 @@
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8816,7 +8823,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8876,7 +8883,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8936,7 +8943,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8996,7 +9003,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9056,7 +9063,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9116,7 +9123,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9176,7 +9183,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9236,7 +9243,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9296,7 +9303,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9356,7 +9363,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9416,7 +9423,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9476,7 +9483,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9538,7 +9545,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9600,7 +9607,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9660,7 +9667,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9722,7 +9729,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9784,7 +9791,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9846,7 +9853,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9908,7 +9915,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9970,7 +9977,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10030,7 +10037,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10092,7 +10099,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10154,7 +10161,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10218,7 +10225,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10278,7 +10285,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10342,7 +10349,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10402,7 +10409,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10462,7 +10469,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -10522,7 +10529,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2DB3B9-B962-44A6-97C2-FFC4862E7579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401EA457-6DB3-42A8-B269-FD58CCE6D3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1160" yWindow="1600" windowWidth="29060" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map0" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="27">
   <si>
     <t>Tile_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0B6F6-72BE-4042-9DBD-113B2542E50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BG10" sqref="BG10"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AP29" sqref="AP29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1338,7 +1338,7 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
+      <c r="AI10" s="4"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
@@ -1388,17 +1388,17 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -1443,25 +1443,25 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
@@ -1500,28 +1500,28 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
@@ -1559,26 +1559,26 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
@@ -1621,24 +1621,26 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
@@ -1682,24 +1684,24 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
@@ -1741,24 +1743,24 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
@@ -1794,15 +1796,15 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -1812,10 +1814,10 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
@@ -1852,16 +1854,16 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -1872,9 +1874,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
@@ -1914,27 +1916,27 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
@@ -1974,28 +1976,28 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
@@ -2034,28 +2036,32 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
@@ -2094,32 +2100,32 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
@@ -2127,7 +2133,7 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
+      <c r="AR23" s="4"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
@@ -2153,30 +2159,30 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
@@ -2186,8 +2192,8 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
@@ -2214,29 +2220,29 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
@@ -2244,10 +2250,10 @@
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
@@ -2274,40 +2280,42 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
@@ -2333,38 +2341,38 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
@@ -2392,28 +2400,28 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
@@ -2452,27 +2460,27 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
@@ -2528,9 +2536,9 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
@@ -2587,10 +2595,12 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA31" s="4"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
@@ -2646,13 +2656,11 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
@@ -2708,10 +2716,10 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
@@ -2768,10 +2776,10 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
@@ -2830,8 +2838,8 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
       <c r="AA35" s="4" t="s">
         <v>8</v>
       </c>
@@ -2894,7 +2902,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
+      <c r="AA36" s="4"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
@@ -2954,7 +2962,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
+      <c r="AA37" s="4"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401EA457-6DB3-42A8-B269-FD58CCE6D3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948AF65B-DA38-478B-83D5-28329D26AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="27">
   <si>
     <t>Tile_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:BJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AP29" sqref="AP29"/>
+      <selection activeCell="AO35" sqref="AO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2779,7 +2779,9 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
+      <c r="Z34" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA34" s="4"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948AF65B-DA38-478B-83D5-28329D26AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3695C8EE-D3B5-4734-B39F-1E3379AD4858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
   <si>
     <t>Tile_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>Tile Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsada</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +565,7 @@
   <dimension ref="A1:BJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AO35" sqref="AO35"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2595,7 +2599,7 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="4"/>
+      <c r="X31" s="3"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="s">
         <v>20</v>
@@ -2656,7 +2660,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="4"/>
+      <c r="W32" s="3"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
@@ -3066,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DF3298-13D4-4045-8040-A2E2F5BA5AAA}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL41" sqref="AL41"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15:AM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3863,6 +3867,9 @@
       <c r="BB10" s="3"/>
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
+      <c r="BF10" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3695C8EE-D3B5-4734-B39F-1E3379AD4858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D38B8-BD0D-46AA-B7E7-69630B3EA498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map0" sheetId="2" r:id="rId1"/>
     <sheet name="Map1" sheetId="4" r:id="rId2"/>
-    <sheet name="Map2" sheetId="5" r:id="rId3"/>
-    <sheet name="Map3" sheetId="6" r:id="rId4"/>
+    <sheet name="Map0 (2)" sheetId="10" r:id="rId3"/>
+    <sheet name="Map2" sheetId="5" r:id="rId4"/>
+    <sheet name="Map3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="27">
   <si>
     <t>Tile_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,16 +135,12 @@
     <t>Tile Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>dsada</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +172,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -248,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,6 +274,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0B6F6-72BE-4042-9DBD-113B2542E50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1640,7 +1648,7 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
@@ -2046,7 +2054,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -2061,7 +2069,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
@@ -2171,7 +2179,9 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="R24" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -2295,18 +2305,22 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
+      <c r="AA26" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
+      <c r="AE26" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
@@ -2783,9 +2797,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
@@ -3070,8 +3082,2525 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DF3298-13D4-4045-8040-A2E2F5BA5AAA}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15:AM35"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" style="2" customWidth="1"/>
+    <col min="22" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.58203125" style="2"/>
+    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
+    <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
+    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BF2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BF3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BF4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BF5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BF6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+    </row>
+    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+    </row>
+    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+    </row>
+    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+    </row>
+    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
+    </row>
+    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+    </row>
+    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+    </row>
+    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+    </row>
+    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="8"/>
+    </row>
+    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8"/>
+      <c r="BC16" s="8"/>
+      <c r="BD16" s="8"/>
+    </row>
+    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8"/>
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="8"/>
+    </row>
+    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8"/>
+    </row>
+    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="8"/>
+    </row>
+    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8"/>
+      <c r="BC20" s="8"/>
+      <c r="BD20" s="8"/>
+    </row>
+    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+    </row>
+    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+    </row>
+    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+    </row>
+    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+    </row>
+    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+    </row>
+    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+    </row>
+    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="8"/>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="8"/>
+      <c r="AS27" s="8"/>
+      <c r="AT27" s="8"/>
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="8"/>
+      <c r="AW27" s="8"/>
+      <c r="AX27" s="8"/>
+      <c r="AY27" s="8"/>
+      <c r="AZ27" s="8"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+    </row>
+    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="8"/>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="8"/>
+      <c r="AS28" s="8"/>
+      <c r="AT28" s="8"/>
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="8"/>
+      <c r="AW28" s="8"/>
+      <c r="AX28" s="8"/>
+      <c r="AY28" s="8"/>
+      <c r="AZ28" s="8"/>
+      <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="8"/>
+    </row>
+    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="8"/>
+      <c r="AQ29" s="8"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="8"/>
+      <c r="AU29" s="8"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="8"/>
+      <c r="AY29" s="8"/>
+      <c r="AZ29" s="8"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="8"/>
+    </row>
+    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+    </row>
+    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+      <c r="AP31" s="8"/>
+      <c r="AQ31" s="8"/>
+      <c r="AR31" s="8"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="8"/>
+      <c r="AU31" s="8"/>
+      <c r="AV31" s="8"/>
+      <c r="AW31" s="8"/>
+      <c r="AX31" s="8"/>
+      <c r="AY31" s="8"/>
+      <c r="AZ31" s="8"/>
+      <c r="BA31" s="8"/>
+      <c r="BB31" s="8"/>
+      <c r="BC31" s="8"/>
+      <c r="BD31" s="8"/>
+    </row>
+    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="8"/>
+      <c r="AO32" s="8"/>
+      <c r="AP32" s="8"/>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="8"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="8"/>
+      <c r="AU32" s="8"/>
+      <c r="AV32" s="8"/>
+      <c r="AW32" s="8"/>
+      <c r="AX32" s="8"/>
+      <c r="AY32" s="8"/>
+      <c r="AZ32" s="8"/>
+      <c r="BA32" s="8"/>
+      <c r="BB32" s="8"/>
+      <c r="BC32" s="8"/>
+      <c r="BD32" s="8"/>
+    </row>
+    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="8"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="8"/>
+      <c r="AW33" s="8"/>
+      <c r="AX33" s="8"/>
+      <c r="AY33" s="8"/>
+      <c r="AZ33" s="8"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
+      <c r="BC33" s="8"/>
+      <c r="BD33" s="8"/>
+    </row>
+    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
+      <c r="AP34" s="8"/>
+      <c r="AQ34" s="8"/>
+      <c r="AR34" s="8"/>
+      <c r="AS34" s="8"/>
+      <c r="AT34" s="8"/>
+      <c r="AU34" s="8"/>
+      <c r="AV34" s="8"/>
+      <c r="AW34" s="8"/>
+      <c r="AX34" s="8"/>
+      <c r="AY34" s="8"/>
+      <c r="AZ34" s="8"/>
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="8"/>
+      <c r="BC34" s="8"/>
+      <c r="BD34" s="8"/>
+    </row>
+    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="8"/>
+      <c r="AR35" s="8"/>
+      <c r="AS35" s="8"/>
+      <c r="AT35" s="8"/>
+      <c r="AU35" s="8"/>
+      <c r="AV35" s="8"/>
+      <c r="AW35" s="8"/>
+      <c r="AX35" s="8"/>
+      <c r="AY35" s="8"/>
+      <c r="AZ35" s="8"/>
+      <c r="BA35" s="8"/>
+      <c r="BB35" s="8"/>
+      <c r="BC35" s="8"/>
+      <c r="BD35" s="8"/>
+    </row>
+    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="8"/>
+      <c r="AR36" s="8"/>
+      <c r="AS36" s="8"/>
+      <c r="AT36" s="8"/>
+      <c r="AU36" s="8"/>
+      <c r="AV36" s="8"/>
+      <c r="AW36" s="8"/>
+      <c r="AX36" s="8"/>
+      <c r="AY36" s="8"/>
+      <c r="AZ36" s="8"/>
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="8"/>
+      <c r="BC36" s="8"/>
+      <c r="BD36" s="8"/>
+    </row>
+    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="8"/>
+      <c r="AV37" s="8"/>
+      <c r="AW37" s="8"/>
+      <c r="AX37" s="8"/>
+      <c r="AY37" s="8"/>
+      <c r="AZ37" s="8"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="8"/>
+      <c r="BC37" s="8"/>
+      <c r="BD37" s="8"/>
+    </row>
+    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="8"/>
+      <c r="AU38" s="8"/>
+      <c r="AV38" s="8"/>
+      <c r="AW38" s="8"/>
+      <c r="AX38" s="8"/>
+      <c r="AY38" s="8"/>
+      <c r="AZ38" s="8"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="8"/>
+      <c r="BC38" s="8"/>
+      <c r="BD38" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B8E9E3-733B-425A-A918-BC3F0B54DE9C}">
+  <dimension ref="A1:BJ38"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AQ31" sqref="AQ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3747,6 +6276,9 @@
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
+      <c r="BG8" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -3867,9 +6399,6 @@
       <c r="BB10" s="3"/>
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
-      <c r="BF10" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -4201,8 +6730,8 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
@@ -4261,12 +6790,12 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
@@ -4318,18 +6847,18 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
@@ -4378,18 +6907,18 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
@@ -4435,23 +6964,23 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
@@ -4495,26 +7024,24 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
@@ -4556,27 +7083,25 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
@@ -4618,24 +7143,24 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
@@ -4678,24 +7203,22 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
@@ -4740,22 +7263,20 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="4"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
@@ -4803,21 +7324,19 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="4"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
@@ -4864,22 +7383,20 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="4"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
@@ -4926,22 +7443,20 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
@@ -4989,17 +7504,17 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="5"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
@@ -5050,19 +7565,17 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="4"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
@@ -5111,19 +7624,17 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="5"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
@@ -5173,23 +7684,19 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
-      <c r="AH32" s="3"/>
+      <c r="AH32" s="4"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
@@ -5239,17 +7746,17 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
-      <c r="AH33" s="3"/>
+      <c r="AH33" s="4"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
@@ -5299,21 +7806,19 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="7" t="s">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AC34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
@@ -5360,15 +7865,15 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
@@ -5420,11 +7925,11 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -5480,11 +7985,11 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -5584,13 +8089,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4F3AFD-AA8C-4369-BA24-749169117A0C}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="30" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8098,7 +10601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6170D9C-7F44-4B58-BBB3-71B20EF69F7F}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D38B8-BD0D-46AA-B7E7-69630B3EA498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BE8526-1186-485E-919B-A742A70C0A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map0" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="27">
   <si>
     <t>Tile_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0B6F6-72BE-4042-9DBD-113B2542E50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK30" sqref="AK30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1647,9 +1647,7 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -2053,9 +2051,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
@@ -2068,9 +2064,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
@@ -2304,9 +2298,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
@@ -3082,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DF3298-13D4-4045-8040-A2E2F5BA5AAA}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -229,7 +229,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -339,32 +339,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -378,13 +352,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -6074,8 +6048,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:BJ38"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="CG29" activeCellId="0" sqref="CG29:CG29"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="BG20" activeCellId="0" sqref="BG20:BG20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.14999999999999857891" customHeight="1"/>
@@ -6517,15 +6491,15 @@
       <x:c r="X5" s="3"/>
       <x:c r="Y5" s="3"/>
       <x:c r="Z5" s="3"/>
-      <x:c r="AA5" s="9"/>
-      <x:c r="AB5" s="9"/>
-      <x:c r="AC5" s="9"/>
-      <x:c r="AD5" s="9"/>
-      <x:c r="AE5" s="9"/>
-      <x:c r="AF5" s="9"/>
-      <x:c r="AG5" s="9"/>
-      <x:c r="AH5" s="9"/>
-      <x:c r="AI5" s="9"/>
+      <x:c r="AA5" s="4"/>
+      <x:c r="AB5" s="4"/>
+      <x:c r="AC5" s="4"/>
+      <x:c r="AD5" s="4"/>
+      <x:c r="AE5" s="4"/>
+      <x:c r="AF5" s="4"/>
+      <x:c r="AG5" s="4"/>
+      <x:c r="AH5" s="4"/>
+      <x:c r="AI5" s="4"/>
       <x:c r="AJ5" s="3"/>
       <x:c r="AK5" s="3"/>
       <x:c r="AL5" s="3"/>
@@ -6587,19 +6561,19 @@
       <x:c r="V6" s="3"/>
       <x:c r="W6" s="3"/>
       <x:c r="X6" s="3"/>
-      <x:c r="Y6" s="9"/>
-      <x:c r="Z6" s="9"/>
-      <x:c r="AA6" s="9"/>
-      <x:c r="AB6" s="9"/>
+      <x:c r="Y6" s="4"/>
+      <x:c r="Z6" s="4"/>
+      <x:c r="AA6" s="4"/>
+      <x:c r="AB6" s="4"/>
       <x:c r="AC6" s="3"/>
       <x:c r="AD6" s="3"/>
       <x:c r="AE6" s="3"/>
       <x:c r="AF6" s="3"/>
       <x:c r="AG6" s="3"/>
-      <x:c r="AH6" s="9"/>
-      <x:c r="AI6" s="9"/>
-      <x:c r="AJ6" s="9"/>
-      <x:c r="AK6" s="9"/>
+      <x:c r="AH6" s="4"/>
+      <x:c r="AI6" s="4"/>
+      <x:c r="AJ6" s="4"/>
+      <x:c r="AK6" s="4"/>
       <x:c r="AL6" s="3"/>
       <x:c r="AM6" s="3"/>
       <x:c r="AN6" s="3"/>
@@ -6658,21 +6632,21 @@
       <x:c r="U7" s="3"/>
       <x:c r="V7" s="3"/>
       <x:c r="W7" s="3"/>
-      <x:c r="X7" s="9"/>
-      <x:c r="Y7" s="9"/>
-      <x:c r="Z7" s="9"/>
-      <x:c r="AA7" s="9"/>
-      <x:c r="AB7" s="9"/>
+      <x:c r="X7" s="4"/>
+      <x:c r="Y7" s="4"/>
+      <x:c r="Z7" s="4"/>
+      <x:c r="AA7" s="4"/>
+      <x:c r="AB7" s="4"/>
       <x:c r="AC7" s="3"/>
-      <x:c r="AD7" s="9"/>
-      <x:c r="AE7" s="9"/>
-      <x:c r="AF7" s="9"/>
+      <x:c r="AD7" s="4"/>
+      <x:c r="AE7" s="4"/>
+      <x:c r="AF7" s="4"/>
       <x:c r="AG7" s="3"/>
-      <x:c r="AH7" s="9"/>
-      <x:c r="AI7" s="9"/>
-      <x:c r="AJ7" s="9"/>
-      <x:c r="AK7" s="9"/>
-      <x:c r="AL7" s="9"/>
+      <x:c r="AH7" s="4"/>
+      <x:c r="AI7" s="4"/>
+      <x:c r="AJ7" s="4"/>
+      <x:c r="AK7" s="4"/>
+      <x:c r="AL7" s="4"/>
       <x:c r="AM7" s="3"/>
       <x:c r="AN7" s="3"/>
       <x:c r="AO7" s="3"/>
@@ -6717,23 +6691,23 @@
       <x:c r="T8" s="3"/>
       <x:c r="U8" s="3"/>
       <x:c r="V8" s="3"/>
-      <x:c r="W8" s="9"/>
+      <x:c r="W8" s="4"/>
       <x:c r="X8" s="10"/>
-      <x:c r="Y8" s="9"/>
-      <x:c r="Z8" s="9"/>
-      <x:c r="AA8" s="9"/>
-      <x:c r="AB8" s="11"/>
+      <x:c r="Y8" s="4"/>
+      <x:c r="Z8" s="4"/>
+      <x:c r="AA8" s="4"/>
+      <x:c r="AB8" s="10"/>
       <x:c r="AC8" s="3"/>
-      <x:c r="AD8" s="9"/>
-      <x:c r="AE8" s="9"/>
-      <x:c r="AF8" s="9"/>
+      <x:c r="AD8" s="4"/>
+      <x:c r="AE8" s="4"/>
+      <x:c r="AF8" s="4"/>
       <x:c r="AG8" s="3"/>
       <x:c r="AH8" s="3"/>
-      <x:c r="AI8" s="9"/>
-      <x:c r="AJ8" s="9"/>
-      <x:c r="AK8" s="9"/>
-      <x:c r="AL8" s="9"/>
-      <x:c r="AM8" s="9"/>
+      <x:c r="AI8" s="4"/>
+      <x:c r="AJ8" s="4"/>
+      <x:c r="AK8" s="4"/>
+      <x:c r="AL8" s="4"/>
+      <x:c r="AM8" s="4"/>
       <x:c r="AN8" s="3"/>
       <x:c r="AO8" s="3"/>
       <x:c r="AP8" s="3"/>
@@ -6780,23 +6754,23 @@
       <x:c r="T9" s="3"/>
       <x:c r="U9" s="3"/>
       <x:c r="V9" s="3"/>
-      <x:c r="W9" s="9"/>
-      <x:c r="X9" s="9"/>
-      <x:c r="Y9" s="9"/>
-      <x:c r="Z9" s="9"/>
-      <x:c r="AA9" s="9"/>
+      <x:c r="W9" s="4"/>
+      <x:c r="X9" s="4"/>
+      <x:c r="Y9" s="4"/>
+      <x:c r="Z9" s="4"/>
+      <x:c r="AA9" s="4"/>
       <x:c r="AB9" s="3"/>
-      <x:c r="AC9" s="9"/>
-      <x:c r="AD9" s="9"/>
-      <x:c r="AE9" s="9"/>
-      <x:c r="AF9" s="9"/>
-      <x:c r="AG9" s="9"/>
+      <x:c r="AC9" s="4"/>
+      <x:c r="AD9" s="4"/>
+      <x:c r="AE9" s="4"/>
+      <x:c r="AF9" s="4"/>
+      <x:c r="AG9" s="4"/>
       <x:c r="AH9" s="3"/>
-      <x:c r="AI9" s="9"/>
-      <x:c r="AJ9" s="9"/>
-      <x:c r="AK9" s="9"/>
-      <x:c r="AL9" s="9"/>
-      <x:c r="AM9" s="9"/>
+      <x:c r="AI9" s="4"/>
+      <x:c r="AJ9" s="4"/>
+      <x:c r="AK9" s="4"/>
+      <x:c r="AL9" s="4"/>
+      <x:c r="AM9" s="4"/>
       <x:c r="AN9" s="3"/>
       <x:c r="AO9" s="3"/>
       <x:c r="AP9" s="3"/>
@@ -6839,29 +6813,29 @@
       <x:c r="S10" s="3"/>
       <x:c r="T10" s="3"/>
       <x:c r="U10" s="3"/>
-      <x:c r="V10" s="9"/>
-      <x:c r="W10" s="9"/>
-      <x:c r="X10" s="9"/>
-      <x:c r="Y10" s="2" t="s">
+      <x:c r="V10" s="4"/>
+      <x:c r="W10" s="4"/>
+      <x:c r="X10" s="4"/>
+      <x:c r="Y10" s="10" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="Z10" s="9"/>
-      <x:c r="AA10" s="9"/>
+      <x:c r="Z10" s="4"/>
+      <x:c r="AA10" s="4"/>
       <x:c r="AB10" s="3"/>
       <x:c r="AC10" s="3"/>
-      <x:c r="AD10" s="9"/>
-      <x:c r="AE10" s="9"/>
-      <x:c r="AF10" s="9"/>
+      <x:c r="AD10" s="4"/>
+      <x:c r="AE10" s="4"/>
+      <x:c r="AF10" s="4"/>
       <x:c r="AG10" s="3"/>
       <x:c r="AH10" s="3"/>
-      <x:c r="AI10" s="9"/>
-      <x:c r="AJ10" s="9"/>
-      <x:c r="AK10" s="2" t="s">
+      <x:c r="AI10" s="4"/>
+      <x:c r="AJ10" s="4"/>
+      <x:c r="AK10" s="10" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="AL10" s="9"/>
-      <x:c r="AM10" s="9"/>
-      <x:c r="AN10" s="9"/>
+      <x:c r="AL10" s="4"/>
+      <x:c r="AM10" s="4"/>
+      <x:c r="AN10" s="4"/>
       <x:c r="AO10" s="3"/>
       <x:c r="AP10" s="3"/>
       <x:c r="AQ10" s="3"/>
@@ -6902,27 +6876,27 @@
       <x:c r="R11" s="3"/>
       <x:c r="S11" s="3"/>
       <x:c r="T11" s="3"/>
-      <x:c r="U11" s="9"/>
-      <x:c r="V11" s="9"/>
-      <x:c r="W11" s="9"/>
-      <x:c r="X11" s="9"/>
-      <x:c r="Y11" s="9"/>
-      <x:c r="Z11" s="9"/>
-      <x:c r="AA11" s="9"/>
+      <x:c r="U11" s="4"/>
+      <x:c r="V11" s="4"/>
+      <x:c r="W11" s="4"/>
+      <x:c r="X11" s="4"/>
+      <x:c r="Y11" s="4"/>
+      <x:c r="Z11" s="4"/>
+      <x:c r="AA11" s="4"/>
       <x:c r="AB11" s="3"/>
-      <x:c r="AC11" s="9"/>
-      <x:c r="AD11" s="9"/>
-      <x:c r="AE11" s="9"/>
-      <x:c r="AF11" s="9"/>
-      <x:c r="AG11" s="9"/>
+      <x:c r="AC11" s="4"/>
+      <x:c r="AD11" s="4"/>
+      <x:c r="AE11" s="4"/>
+      <x:c r="AF11" s="4"/>
+      <x:c r="AG11" s="4"/>
       <x:c r="AH11" s="3"/>
-      <x:c r="AI11" s="9"/>
-      <x:c r="AJ11" s="9"/>
-      <x:c r="AK11" s="9"/>
-      <x:c r="AL11" s="9"/>
-      <x:c r="AM11" s="9"/>
-      <x:c r="AN11" s="9"/>
-      <x:c r="AO11" s="9"/>
+      <x:c r="AI11" s="4"/>
+      <x:c r="AJ11" s="4"/>
+      <x:c r="AK11" s="4"/>
+      <x:c r="AL11" s="4"/>
+      <x:c r="AM11" s="4"/>
+      <x:c r="AN11" s="4"/>
+      <x:c r="AO11" s="4"/>
       <x:c r="AP11" s="3"/>
       <x:c r="AQ11" s="3"/>
       <x:c r="AR11" s="3"/>
@@ -6962,29 +6936,29 @@
       <x:c r="R12" s="3"/>
       <x:c r="S12" s="3"/>
       <x:c r="T12" s="3"/>
-      <x:c r="U12" s="9"/>
-      <x:c r="V12" s="9"/>
-      <x:c r="W12" s="9"/>
-      <x:c r="X12" s="9"/>
-      <x:c r="Y12" s="9"/>
-      <x:c r="Z12" s="9"/>
-      <x:c r="AA12" s="9"/>
-      <x:c r="AB12" s="9"/>
-      <x:c r="AC12" s="9"/>
-      <x:c r="AD12" s="9"/>
-      <x:c r="AE12" s="9"/>
-      <x:c r="AF12" s="9"/>
-      <x:c r="AG12" s="9"/>
-      <x:c r="AH12" s="9"/>
-      <x:c r="AI12" s="9"/>
-      <x:c r="AJ12" s="9"/>
-      <x:c r="AK12" s="9"/>
-      <x:c r="AL12" s="9"/>
-      <x:c r="AM12" s="9"/>
-      <x:c r="AN12" s="9"/>
-      <x:c r="AO12" s="9"/>
-      <x:c r="AP12" s="9"/>
-      <x:c r="AQ12" s="9"/>
+      <x:c r="U12" s="4"/>
+      <x:c r="V12" s="4"/>
+      <x:c r="W12" s="4"/>
+      <x:c r="X12" s="4"/>
+      <x:c r="Y12" s="4"/>
+      <x:c r="Z12" s="4"/>
+      <x:c r="AA12" s="4"/>
+      <x:c r="AB12" s="4"/>
+      <x:c r="AC12" s="4"/>
+      <x:c r="AD12" s="4"/>
+      <x:c r="AE12" s="4"/>
+      <x:c r="AF12" s="4"/>
+      <x:c r="AG12" s="4"/>
+      <x:c r="AH12" s="4"/>
+      <x:c r="AI12" s="4"/>
+      <x:c r="AJ12" s="4"/>
+      <x:c r="AK12" s="4"/>
+      <x:c r="AL12" s="4"/>
+      <x:c r="AM12" s="4"/>
+      <x:c r="AN12" s="4"/>
+      <x:c r="AO12" s="4"/>
+      <x:c r="AP12" s="4"/>
+      <x:c r="AQ12" s="4"/>
       <x:c r="AR12" s="3"/>
       <x:c r="AS12" s="3"/>
       <x:c r="AT12" s="3"/>
@@ -7020,31 +6994,31 @@
       <x:c r="P13" s="3"/>
       <x:c r="Q13" s="3"/>
       <x:c r="R13" s="3"/>
-      <x:c r="S13" s="9"/>
-      <x:c r="T13" s="9"/>
-      <x:c r="U13" s="9"/>
-      <x:c r="V13" s="9"/>
-      <x:c r="W13" s="9"/>
-      <x:c r="X13" s="9"/>
-      <x:c r="Y13" s="9"/>
-      <x:c r="Z13" s="9"/>
-      <x:c r="AA13" s="9"/>
-      <x:c r="AB13" s="9"/>
-      <x:c r="AC13" s="9"/>
-      <x:c r="AD13" s="9"/>
-      <x:c r="AE13" s="9"/>
-      <x:c r="AF13" s="9"/>
-      <x:c r="AG13" s="9"/>
-      <x:c r="AH13" s="9"/>
-      <x:c r="AI13" s="9"/>
-      <x:c r="AJ13" s="9"/>
-      <x:c r="AK13" s="9"/>
-      <x:c r="AL13" s="9"/>
-      <x:c r="AM13" s="9"/>
-      <x:c r="AN13" s="9"/>
-      <x:c r="AO13" s="9"/>
-      <x:c r="AP13" s="9"/>
-      <x:c r="AQ13" s="9"/>
+      <x:c r="S13" s="4"/>
+      <x:c r="T13" s="4"/>
+      <x:c r="U13" s="4"/>
+      <x:c r="V13" s="4"/>
+      <x:c r="W13" s="4"/>
+      <x:c r="X13" s="4"/>
+      <x:c r="Y13" s="4"/>
+      <x:c r="Z13" s="4"/>
+      <x:c r="AA13" s="4"/>
+      <x:c r="AB13" s="4"/>
+      <x:c r="AC13" s="4"/>
+      <x:c r="AD13" s="4"/>
+      <x:c r="AE13" s="4"/>
+      <x:c r="AF13" s="4"/>
+      <x:c r="AG13" s="4"/>
+      <x:c r="AH13" s="4"/>
+      <x:c r="AI13" s="4"/>
+      <x:c r="AJ13" s="4"/>
+      <x:c r="AK13" s="4"/>
+      <x:c r="AL13" s="4"/>
+      <x:c r="AM13" s="4"/>
+      <x:c r="AN13" s="4"/>
+      <x:c r="AO13" s="4"/>
+      <x:c r="AP13" s="4"/>
+      <x:c r="AQ13" s="4"/>
       <x:c r="AR13" s="3"/>
       <x:c r="AS13" s="3"/>
       <x:c r="AT13" s="3"/>
@@ -7080,35 +7054,35 @@
       <x:c r="P14" s="3"/>
       <x:c r="Q14" s="3"/>
       <x:c r="R14" s="3"/>
-      <x:c r="S14" s="9"/>
-      <x:c r="T14" s="9"/>
-      <x:c r="U14" s="9"/>
-      <x:c r="V14" s="9"/>
-      <x:c r="W14" s="2" t="s">
+      <x:c r="S14" s="4"/>
+      <x:c r="T14" s="4"/>
+      <x:c r="U14" s="4"/>
+      <x:c r="V14" s="4"/>
+      <x:c r="W14" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="X14" s="9"/>
+      <x:c r="X14" s="4"/>
       <x:c r="Y14" s="3"/>
-      <x:c r="Z14" s="11"/>
-      <x:c r="AA14" s="9"/>
-      <x:c r="AB14" s="9"/>
-      <x:c r="AC14" s="9"/>
-      <x:c r="AD14" s="9"/>
-      <x:c r="AE14" s="9"/>
-      <x:c r="AF14" s="9"/>
-      <x:c r="AG14" s="9"/>
-      <x:c r="AH14" s="9"/>
-      <x:c r="AI14" s="9"/>
+      <x:c r="Z14" s="9"/>
+      <x:c r="AA14" s="4"/>
+      <x:c r="AB14" s="4"/>
+      <x:c r="AC14" s="4"/>
+      <x:c r="AD14" s="4"/>
+      <x:c r="AE14" s="4"/>
+      <x:c r="AF14" s="4"/>
+      <x:c r="AG14" s="4"/>
+      <x:c r="AH14" s="4"/>
+      <x:c r="AI14" s="4"/>
       <x:c r="AJ14" s="3"/>
       <x:c r="AK14" s="3"/>
-      <x:c r="AL14" s="9"/>
-      <x:c r="AM14" s="12" t="s">
+      <x:c r="AL14" s="4"/>
+      <x:c r="AM14" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="AN14" s="9"/>
-      <x:c r="AO14" s="9"/>
-      <x:c r="AP14" s="9"/>
-      <x:c r="AQ14" s="9"/>
+      <x:c r="AN14" s="4"/>
+      <x:c r="AO14" s="4"/>
+      <x:c r="AP14" s="4"/>
+      <x:c r="AQ14" s="4"/>
       <x:c r="AR14" s="3"/>
       <x:c r="AS14" s="3"/>
       <x:c r="AT14" s="3"/>
@@ -7144,31 +7118,31 @@
       <x:c r="P15" s="3"/>
       <x:c r="Q15" s="3"/>
       <x:c r="R15" s="3"/>
-      <x:c r="S15" s="9"/>
-      <x:c r="T15" s="9"/>
-      <x:c r="U15" s="9"/>
-      <x:c r="V15" s="9"/>
-      <x:c r="W15" s="9"/>
-      <x:c r="X15" s="9"/>
+      <x:c r="S15" s="4"/>
+      <x:c r="T15" s="4"/>
+      <x:c r="U15" s="4"/>
+      <x:c r="V15" s="4"/>
+      <x:c r="W15" s="4"/>
+      <x:c r="X15" s="4"/>
       <x:c r="Y15" s="3"/>
       <x:c r="Z15" s="3"/>
-      <x:c r="AA15" s="9"/>
-      <x:c r="AB15" s="9"/>
-      <x:c r="AC15" s="9"/>
-      <x:c r="AD15" s="9"/>
-      <x:c r="AE15" s="9"/>
-      <x:c r="AF15" s="9"/>
-      <x:c r="AG15" s="9"/>
-      <x:c r="AH15" s="9"/>
-      <x:c r="AI15" s="9"/>
+      <x:c r="AA15" s="4"/>
+      <x:c r="AB15" s="4"/>
+      <x:c r="AC15" s="4"/>
+      <x:c r="AD15" s="3"/>
+      <x:c r="AE15" s="3"/>
+      <x:c r="AF15" s="3"/>
+      <x:c r="AG15" s="4"/>
+      <x:c r="AH15" s="4"/>
+      <x:c r="AI15" s="4"/>
       <x:c r="AJ15" s="3"/>
       <x:c r="AK15" s="3"/>
-      <x:c r="AL15" s="9"/>
-      <x:c r="AM15" s="12"/>
-      <x:c r="AN15" s="9"/>
-      <x:c r="AO15" s="9"/>
-      <x:c r="AP15" s="9"/>
-      <x:c r="AQ15" s="9"/>
+      <x:c r="AL15" s="4"/>
+      <x:c r="AM15" s="4"/>
+      <x:c r="AN15" s="4"/>
+      <x:c r="AO15" s="4"/>
+      <x:c r="AP15" s="4"/>
+      <x:c r="AQ15" s="4"/>
       <x:c r="AR15" s="3"/>
       <x:c r="AS15" s="3"/>
       <x:c r="AT15" s="3"/>
@@ -7204,31 +7178,31 @@
       <x:c r="P16" s="3"/>
       <x:c r="Q16" s="3"/>
       <x:c r="R16" s="3"/>
-      <x:c r="S16" s="9"/>
-      <x:c r="T16" s="9"/>
-      <x:c r="U16" s="9"/>
-      <x:c r="V16" s="9"/>
-      <x:c r="W16" s="9"/>
-      <x:c r="X16" s="9"/>
-      <x:c r="Y16" s="9"/>
-      <x:c r="Z16" s="9"/>
-      <x:c r="AA16" s="9"/>
-      <x:c r="AB16" s="9"/>
-      <x:c r="AC16" s="9"/>
-      <x:c r="AD16" s="9"/>
-      <x:c r="AE16" s="9"/>
-      <x:c r="AF16" s="9"/>
-      <x:c r="AG16" s="9"/>
-      <x:c r="AH16" s="9"/>
-      <x:c r="AI16" s="9"/>
-      <x:c r="AJ16" s="9"/>
-      <x:c r="AK16" s="9"/>
-      <x:c r="AL16" s="9"/>
-      <x:c r="AM16" s="9"/>
-      <x:c r="AN16" s="9"/>
-      <x:c r="AO16" s="9"/>
-      <x:c r="AP16" s="9"/>
-      <x:c r="AQ16" s="9"/>
+      <x:c r="S16" s="4"/>
+      <x:c r="T16" s="4"/>
+      <x:c r="U16" s="4"/>
+      <x:c r="V16" s="4"/>
+      <x:c r="W16" s="4"/>
+      <x:c r="X16" s="4"/>
+      <x:c r="Y16" s="4"/>
+      <x:c r="Z16" s="4"/>
+      <x:c r="AA16" s="4"/>
+      <x:c r="AB16" s="4"/>
+      <x:c r="AC16" s="4"/>
+      <x:c r="AD16" s="3"/>
+      <x:c r="AE16" s="3"/>
+      <x:c r="AF16" s="3"/>
+      <x:c r="AG16" s="4"/>
+      <x:c r="AH16" s="4"/>
+      <x:c r="AI16" s="4"/>
+      <x:c r="AJ16" s="4"/>
+      <x:c r="AK16" s="4"/>
+      <x:c r="AL16" s="4"/>
+      <x:c r="AM16" s="4"/>
+      <x:c r="AN16" s="4"/>
+      <x:c r="AO16" s="4"/>
+      <x:c r="AP16" s="4"/>
+      <x:c r="AQ16" s="4"/>
       <x:c r="AR16" s="3"/>
       <x:c r="AS16" s="3"/>
       <x:c r="AT16" s="3"/>
@@ -7264,31 +7238,31 @@
       <x:c r="P17" s="3"/>
       <x:c r="Q17" s="3"/>
       <x:c r="R17" s="3"/>
-      <x:c r="S17" s="9"/>
-      <x:c r="T17" s="9"/>
-      <x:c r="U17" s="9"/>
-      <x:c r="V17" s="9"/>
-      <x:c r="W17" s="9"/>
-      <x:c r="X17" s="9"/>
-      <x:c r="Y17" s="9"/>
-      <x:c r="Z17" s="9"/>
-      <x:c r="AA17" s="9"/>
-      <x:c r="AB17" s="9"/>
-      <x:c r="AC17" s="9"/>
-      <x:c r="AD17" s="9"/>
-      <x:c r="AE17" s="9"/>
-      <x:c r="AF17" s="9"/>
-      <x:c r="AG17" s="9"/>
-      <x:c r="AH17" s="9"/>
-      <x:c r="AI17" s="9"/>
-      <x:c r="AJ17" s="9"/>
-      <x:c r="AK17" s="9"/>
+      <x:c r="S17" s="4"/>
+      <x:c r="T17" s="4"/>
+      <x:c r="U17" s="4"/>
+      <x:c r="V17" s="4"/>
+      <x:c r="W17" s="4"/>
+      <x:c r="X17" s="4"/>
+      <x:c r="Y17" s="4"/>
+      <x:c r="Z17" s="4"/>
+      <x:c r="AA17" s="4"/>
+      <x:c r="AB17" s="4"/>
+      <x:c r="AC17" s="4"/>
+      <x:c r="AD17" s="3"/>
+      <x:c r="AE17" s="3"/>
+      <x:c r="AF17" s="3"/>
+      <x:c r="AG17" s="4"/>
+      <x:c r="AH17" s="4"/>
+      <x:c r="AI17" s="4"/>
+      <x:c r="AJ17" s="4"/>
+      <x:c r="AK17" s="4"/>
       <x:c r="AL17" s="10"/>
-      <x:c r="AM17" s="9"/>
-      <x:c r="AN17" s="9"/>
-      <x:c r="AO17" s="9"/>
-      <x:c r="AP17" s="9"/>
-      <x:c r="AQ17" s="9"/>
+      <x:c r="AM17" s="4"/>
+      <x:c r="AN17" s="4"/>
+      <x:c r="AO17" s="4"/>
+      <x:c r="AP17" s="4"/>
+      <x:c r="AQ17" s="4"/>
       <x:c r="AR17" s="3"/>
       <x:c r="AS17" s="3"/>
       <x:c r="AT17" s="3"/>
@@ -7324,31 +7298,31 @@
       <x:c r="P18" s="3"/>
       <x:c r="Q18" s="3"/>
       <x:c r="R18" s="3"/>
-      <x:c r="S18" s="9"/>
-      <x:c r="T18" s="9"/>
-      <x:c r="U18" s="9"/>
-      <x:c r="V18" s="9"/>
-      <x:c r="W18" s="9"/>
-      <x:c r="X18" s="9"/>
-      <x:c r="Y18" s="9"/>
-      <x:c r="Z18" s="9"/>
-      <x:c r="AA18" s="9"/>
-      <x:c r="AB18" s="9"/>
-      <x:c r="AC18" s="9"/>
-      <x:c r="AD18" s="9"/>
-      <x:c r="AE18" s="9"/>
-      <x:c r="AF18" s="9"/>
-      <x:c r="AG18" s="9"/>
-      <x:c r="AH18" s="9"/>
-      <x:c r="AI18" s="9"/>
-      <x:c r="AJ18" s="9"/>
-      <x:c r="AK18" s="9"/>
-      <x:c r="AL18" s="9"/>
-      <x:c r="AM18" s="9"/>
-      <x:c r="AN18" s="9"/>
-      <x:c r="AO18" s="9"/>
-      <x:c r="AP18" s="9"/>
-      <x:c r="AQ18" s="9"/>
+      <x:c r="S18" s="4"/>
+      <x:c r="T18" s="4"/>
+      <x:c r="U18" s="4"/>
+      <x:c r="V18" s="4"/>
+      <x:c r="W18" s="4"/>
+      <x:c r="X18" s="4"/>
+      <x:c r="Y18" s="4"/>
+      <x:c r="Z18" s="4"/>
+      <x:c r="AA18" s="4"/>
+      <x:c r="AB18" s="4"/>
+      <x:c r="AC18" s="4"/>
+      <x:c r="AD18" s="4"/>
+      <x:c r="AE18" s="4"/>
+      <x:c r="AF18" s="4"/>
+      <x:c r="AG18" s="4"/>
+      <x:c r="AH18" s="4"/>
+      <x:c r="AI18" s="4"/>
+      <x:c r="AJ18" s="4"/>
+      <x:c r="AK18" s="4"/>
+      <x:c r="AL18" s="4"/>
+      <x:c r="AM18" s="4"/>
+      <x:c r="AN18" s="4"/>
+      <x:c r="AO18" s="4"/>
+      <x:c r="AP18" s="4"/>
+      <x:c r="AQ18" s="4"/>
       <x:c r="AR18" s="3"/>
       <x:c r="AS18" s="3"/>
       <x:c r="AT18" s="3"/>
@@ -7384,31 +7358,31 @@
       <x:c r="P19" s="3"/>
       <x:c r="Q19" s="3"/>
       <x:c r="R19" s="3"/>
-      <x:c r="S19" s="9"/>
-      <x:c r="T19" s="9"/>
-      <x:c r="U19" s="9"/>
-      <x:c r="V19" s="9"/>
-      <x:c r="W19" s="9"/>
-      <x:c r="X19" s="9"/>
-      <x:c r="Y19" s="9"/>
-      <x:c r="Z19" s="9"/>
-      <x:c r="AA19" s="9"/>
-      <x:c r="AB19" s="9"/>
-      <x:c r="AC19" s="9"/>
-      <x:c r="AD19" s="9"/>
-      <x:c r="AE19" s="9"/>
-      <x:c r="AF19" s="9"/>
-      <x:c r="AG19" s="9"/>
-      <x:c r="AH19" s="9"/>
-      <x:c r="AI19" s="9"/>
-      <x:c r="AJ19" s="9"/>
-      <x:c r="AK19" s="9"/>
+      <x:c r="S19" s="4"/>
+      <x:c r="T19" s="4"/>
+      <x:c r="U19" s="4"/>
+      <x:c r="V19" s="4"/>
+      <x:c r="W19" s="4"/>
+      <x:c r="X19" s="4"/>
+      <x:c r="Y19" s="4"/>
+      <x:c r="Z19" s="4"/>
+      <x:c r="AA19" s="4"/>
+      <x:c r="AB19" s="4"/>
+      <x:c r="AC19" s="4"/>
+      <x:c r="AD19" s="4"/>
+      <x:c r="AE19" s="4"/>
+      <x:c r="AF19" s="4"/>
+      <x:c r="AG19" s="4"/>
+      <x:c r="AH19" s="4"/>
+      <x:c r="AI19" s="4"/>
+      <x:c r="AJ19" s="4"/>
+      <x:c r="AK19" s="4"/>
       <x:c r="AL19" s="10"/>
-      <x:c r="AM19" s="9"/>
-      <x:c r="AN19" s="9"/>
-      <x:c r="AO19" s="9"/>
-      <x:c r="AP19" s="9"/>
-      <x:c r="AQ19" s="9"/>
+      <x:c r="AM19" s="4"/>
+      <x:c r="AN19" s="4"/>
+      <x:c r="AO19" s="4"/>
+      <x:c r="AP19" s="4"/>
+      <x:c r="AQ19" s="4"/>
       <x:c r="AR19" s="3"/>
       <x:c r="AS19" s="3"/>
       <x:c r="AT19" s="3"/>
@@ -7444,31 +7418,31 @@
       <x:c r="P20" s="3"/>
       <x:c r="Q20" s="3"/>
       <x:c r="R20" s="3"/>
-      <x:c r="S20" s="9"/>
-      <x:c r="T20" s="9"/>
-      <x:c r="U20" s="9"/>
-      <x:c r="V20" s="9"/>
-      <x:c r="W20" s="9"/>
-      <x:c r="X20" s="9"/>
+      <x:c r="S20" s="4"/>
+      <x:c r="T20" s="4"/>
+      <x:c r="U20" s="4"/>
+      <x:c r="V20" s="4"/>
+      <x:c r="W20" s="4"/>
+      <x:c r="X20" s="4"/>
       <x:c r="Y20" s="3"/>
       <x:c r="Z20" s="3"/>
-      <x:c r="AA20" s="9"/>
-      <x:c r="AB20" s="9"/>
-      <x:c r="AC20" s="9"/>
-      <x:c r="AD20" s="9"/>
-      <x:c r="AE20" s="9"/>
-      <x:c r="AF20" s="9"/>
-      <x:c r="AG20" s="9"/>
-      <x:c r="AH20" s="9"/>
-      <x:c r="AI20" s="9"/>
+      <x:c r="AA20" s="4"/>
+      <x:c r="AB20" s="4"/>
+      <x:c r="AC20" s="4"/>
+      <x:c r="AD20" s="4"/>
+      <x:c r="AE20" s="4"/>
+      <x:c r="AF20" s="4"/>
+      <x:c r="AG20" s="4"/>
+      <x:c r="AH20" s="4"/>
+      <x:c r="AI20" s="4"/>
       <x:c r="AJ20" s="3"/>
       <x:c r="AK20" s="3"/>
-      <x:c r="AL20" s="9"/>
-      <x:c r="AM20" s="9"/>
-      <x:c r="AN20" s="9"/>
-      <x:c r="AO20" s="9"/>
-      <x:c r="AP20" s="9"/>
-      <x:c r="AQ20" s="9"/>
+      <x:c r="AL20" s="4"/>
+      <x:c r="AM20" s="4"/>
+      <x:c r="AN20" s="4"/>
+      <x:c r="AO20" s="4"/>
+      <x:c r="AP20" s="4"/>
+      <x:c r="AQ20" s="4"/>
       <x:c r="AR20" s="3"/>
       <x:c r="AS20" s="3"/>
       <x:c r="AT20" s="3"/>
@@ -7504,35 +7478,35 @@
       <x:c r="P21" s="3"/>
       <x:c r="Q21" s="3"/>
       <x:c r="R21" s="3"/>
-      <x:c r="S21" s="9"/>
-      <x:c r="T21" s="9"/>
-      <x:c r="U21" s="9"/>
-      <x:c r="V21" s="9"/>
-      <x:c r="W21" s="2" t="s">
+      <x:c r="S21" s="4"/>
+      <x:c r="T21" s="4"/>
+      <x:c r="U21" s="4"/>
+      <x:c r="V21" s="4"/>
+      <x:c r="W21" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="X21" s="10"/>
       <x:c r="Y21" s="3"/>
       <x:c r="Z21" s="3"/>
-      <x:c r="AA21" s="9"/>
-      <x:c r="AB21" s="9"/>
-      <x:c r="AC21" s="9"/>
+      <x:c r="AA21" s="4"/>
+      <x:c r="AB21" s="4"/>
+      <x:c r="AC21" s="4"/>
       <x:c r="AD21" s="10"/>
-      <x:c r="AE21" s="9"/>
-      <x:c r="AF21" s="9"/>
-      <x:c r="AG21" s="9"/>
-      <x:c r="AH21" s="9"/>
-      <x:c r="AI21" s="9"/>
+      <x:c r="AE21" s="4"/>
+      <x:c r="AF21" s="4"/>
+      <x:c r="AG21" s="4"/>
+      <x:c r="AH21" s="4"/>
+      <x:c r="AI21" s="4"/>
       <x:c r="AJ21" s="3"/>
       <x:c r="AK21" s="3"/>
-      <x:c r="AL21" s="9"/>
-      <x:c r="AM21" s="2" t="s">
+      <x:c r="AL21" s="4"/>
+      <x:c r="AM21" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="AN21" s="9"/>
-      <x:c r="AO21" s="9"/>
-      <x:c r="AP21" s="9"/>
-      <x:c r="AQ21" s="9"/>
+      <x:c r="AN21" s="4"/>
+      <x:c r="AO21" s="4"/>
+      <x:c r="AP21" s="4"/>
+      <x:c r="AQ21" s="4"/>
       <x:c r="AR21" s="3"/>
       <x:c r="AS21" s="3"/>
       <x:c r="AT21" s="3"/>
@@ -7568,31 +7542,31 @@
       <x:c r="P22" s="3"/>
       <x:c r="Q22" s="3"/>
       <x:c r="R22" s="3"/>
-      <x:c r="S22" s="9"/>
-      <x:c r="T22" s="9"/>
-      <x:c r="U22" s="9"/>
-      <x:c r="V22" s="9"/>
-      <x:c r="W22" s="9"/>
-      <x:c r="X22" s="9"/>
-      <x:c r="Y22" s="9"/>
-      <x:c r="Z22" s="9"/>
-      <x:c r="AA22" s="9"/>
-      <x:c r="AB22" s="9"/>
-      <x:c r="AC22" s="9"/>
-      <x:c r="AD22" s="9"/>
-      <x:c r="AE22" s="9"/>
-      <x:c r="AF22" s="9"/>
-      <x:c r="AG22" s="9"/>
-      <x:c r="AH22" s="9"/>
-      <x:c r="AI22" s="9"/>
-      <x:c r="AJ22" s="9"/>
-      <x:c r="AK22" s="9"/>
-      <x:c r="AL22" s="9"/>
-      <x:c r="AM22" s="9"/>
-      <x:c r="AN22" s="9"/>
-      <x:c r="AO22" s="9"/>
-      <x:c r="AP22" s="9"/>
-      <x:c r="AQ22" s="9"/>
+      <x:c r="S22" s="4"/>
+      <x:c r="T22" s="4"/>
+      <x:c r="U22" s="4"/>
+      <x:c r="V22" s="4"/>
+      <x:c r="W22" s="4"/>
+      <x:c r="X22" s="4"/>
+      <x:c r="Y22" s="4"/>
+      <x:c r="Z22" s="4"/>
+      <x:c r="AA22" s="4"/>
+      <x:c r="AB22" s="4"/>
+      <x:c r="AC22" s="4"/>
+      <x:c r="AD22" s="4"/>
+      <x:c r="AE22" s="4"/>
+      <x:c r="AF22" s="4"/>
+      <x:c r="AG22" s="4"/>
+      <x:c r="AH22" s="4"/>
+      <x:c r="AI22" s="4"/>
+      <x:c r="AJ22" s="4"/>
+      <x:c r="AK22" s="4"/>
+      <x:c r="AL22" s="4"/>
+      <x:c r="AM22" s="4"/>
+      <x:c r="AN22" s="4"/>
+      <x:c r="AO22" s="4"/>
+      <x:c r="AP22" s="4"/>
+      <x:c r="AQ22" s="4"/>
       <x:c r="AR22" s="3"/>
       <x:c r="AS22" s="3"/>
       <x:c r="AT22" s="3"/>
@@ -7628,13 +7602,13 @@
       <x:c r="P23" s="3"/>
       <x:c r="Q23" s="3"/>
       <x:c r="R23" s="3"/>
-      <x:c r="S23" s="9"/>
-      <x:c r="T23" s="9"/>
-      <x:c r="U23" s="9"/>
-      <x:c r="V23" s="9"/>
-      <x:c r="W23" s="9"/>
-      <x:c r="X23" s="9"/>
-      <x:c r="Y23" s="9"/>
+      <x:c r="S23" s="4"/>
+      <x:c r="T23" s="4"/>
+      <x:c r="U23" s="4"/>
+      <x:c r="V23" s="4"/>
+      <x:c r="W23" s="4"/>
+      <x:c r="X23" s="4"/>
+      <x:c r="Y23" s="4"/>
       <x:c r="Z23" s="3"/>
       <x:c r="AA23" s="3"/>
       <x:c r="AB23" s="3"/>
@@ -7647,12 +7621,12 @@
       <x:c r="AI23" s="3"/>
       <x:c r="AJ23" s="3"/>
       <x:c r="AK23" s="3"/>
-      <x:c r="AL23" s="9"/>
-      <x:c r="AM23" s="9"/>
-      <x:c r="AN23" s="9"/>
-      <x:c r="AO23" s="9"/>
-      <x:c r="AP23" s="9"/>
-      <x:c r="AQ23" s="9"/>
+      <x:c r="AL23" s="4"/>
+      <x:c r="AM23" s="4"/>
+      <x:c r="AN23" s="4"/>
+      <x:c r="AO23" s="4"/>
+      <x:c r="AP23" s="4"/>
+      <x:c r="AQ23" s="4"/>
       <x:c r="AR23" s="3"/>
       <x:c r="AS23" s="3"/>
       <x:c r="AT23" s="3"/>
@@ -7688,11 +7662,11 @@
       <x:c r="P24" s="3"/>
       <x:c r="Q24" s="3"/>
       <x:c r="R24" s="3"/>
-      <x:c r="S24" s="9"/>
-      <x:c r="T24" s="9"/>
-      <x:c r="U24" s="9"/>
-      <x:c r="V24" s="9"/>
-      <x:c r="W24" s="9"/>
+      <x:c r="S24" s="4"/>
+      <x:c r="T24" s="4"/>
+      <x:c r="U24" s="4"/>
+      <x:c r="V24" s="4"/>
+      <x:c r="W24" s="4"/>
       <x:c r="X24" s="3"/>
       <x:c r="Y24" s="3"/>
       <x:c r="Z24" s="3"/>
@@ -7707,12 +7681,12 @@
       <x:c r="AI24" s="3"/>
       <x:c r="AJ24" s="3"/>
       <x:c r="AK24" s="3"/>
-      <x:c r="AL24" s="9"/>
-      <x:c r="AM24" s="9"/>
-      <x:c r="AN24" s="9"/>
-      <x:c r="AO24" s="9"/>
-      <x:c r="AP24" s="9"/>
-      <x:c r="AQ24" s="9"/>
+      <x:c r="AL24" s="4"/>
+      <x:c r="AM24" s="4"/>
+      <x:c r="AN24" s="4"/>
+      <x:c r="AO24" s="4"/>
+      <x:c r="AP24" s="4"/>
+      <x:c r="AQ24" s="4"/>
       <x:c r="AR24" s="3"/>
       <x:c r="AS24" s="3"/>
       <x:c r="AT24" s="3"/>
@@ -7748,11 +7722,11 @@
       <x:c r="P25" s="3"/>
       <x:c r="Q25" s="3"/>
       <x:c r="R25" s="3"/>
-      <x:c r="S25" s="9"/>
-      <x:c r="T25" s="9"/>
-      <x:c r="U25" s="9"/>
-      <x:c r="V25" s="9"/>
-      <x:c r="W25" s="9"/>
+      <x:c r="S25" s="4"/>
+      <x:c r="T25" s="4"/>
+      <x:c r="U25" s="4"/>
+      <x:c r="V25" s="4"/>
+      <x:c r="W25" s="4"/>
       <x:c r="X25" s="3"/>
       <x:c r="Y25" s="3"/>
       <x:c r="Z25" s="3"/>
@@ -7768,11 +7742,11 @@
       <x:c r="AJ25" s="3"/>
       <x:c r="AK25" s="3"/>
       <x:c r="AL25" s="3"/>
-      <x:c r="AM25" s="9"/>
-      <x:c r="AN25" s="9"/>
-      <x:c r="AO25" s="9"/>
-      <x:c r="AP25" s="9"/>
-      <x:c r="AQ25" s="9"/>
+      <x:c r="AM25" s="4"/>
+      <x:c r="AN25" s="4"/>
+      <x:c r="AO25" s="4"/>
+      <x:c r="AP25" s="4"/>
+      <x:c r="AQ25" s="4"/>
       <x:c r="AR25" s="3"/>
       <x:c r="AS25" s="3"/>
       <x:c r="AT25" s="3"/>
@@ -7808,35 +7782,35 @@
       <x:c r="P26" s="3"/>
       <x:c r="Q26" s="3"/>
       <x:c r="R26" s="3"/>
-      <x:c r="S26" s="9"/>
-      <x:c r="T26" s="9"/>
-      <x:c r="U26" s="2" t="s">
+      <x:c r="S26" s="4"/>
+      <x:c r="T26" s="4"/>
+      <x:c r="U26" s="10" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="V26" s="9"/>
-      <x:c r="W26" s="9"/>
+      <x:c r="V26" s="4"/>
+      <x:c r="W26" s="4"/>
       <x:c r="X26" s="3"/>
       <x:c r="Y26" s="3"/>
       <x:c r="Z26" s="3"/>
       <x:c r="AA26" s="3"/>
       <x:c r="AB26" s="3"/>
       <x:c r="AC26" s="3"/>
-      <x:c r="AD26" s="9"/>
-      <x:c r="AE26" s="9"/>
-      <x:c r="AF26" s="9"/>
-      <x:c r="AG26" s="9"/>
+      <x:c r="AD26" s="4"/>
+      <x:c r="AE26" s="4"/>
+      <x:c r="AF26" s="4"/>
+      <x:c r="AG26" s="4"/>
       <x:c r="AH26" s="3"/>
       <x:c r="AI26" s="3"/>
       <x:c r="AJ26" s="3"/>
       <x:c r="AK26" s="3"/>
       <x:c r="AL26" s="3"/>
-      <x:c r="AM26" s="9"/>
-      <x:c r="AN26" s="9"/>
-      <x:c r="AO26" s="2" t="s">
+      <x:c r="AM26" s="4"/>
+      <x:c r="AN26" s="4"/>
+      <x:c r="AO26" s="10" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="AP26" s="9"/>
-      <x:c r="AQ26" s="9"/>
+      <x:c r="AP26" s="4"/>
+      <x:c r="AQ26" s="4"/>
       <x:c r="AR26" s="3"/>
       <x:c r="AS26" s="3"/>
       <x:c r="AT26" s="3"/>
@@ -7872,31 +7846,31 @@
       <x:c r="P27" s="3"/>
       <x:c r="Q27" s="3"/>
       <x:c r="R27" s="3"/>
-      <x:c r="S27" s="9"/>
-      <x:c r="T27" s="9"/>
-      <x:c r="U27" s="9"/>
-      <x:c r="V27" s="9"/>
-      <x:c r="W27" s="9"/>
+      <x:c r="S27" s="4"/>
+      <x:c r="T27" s="4"/>
+      <x:c r="U27" s="4"/>
+      <x:c r="V27" s="4"/>
+      <x:c r="W27" s="4"/>
       <x:c r="X27" s="3"/>
       <x:c r="Y27" s="3"/>
-      <x:c r="Z27" s="11"/>
+      <x:c r="Z27" s="9"/>
       <x:c r="AA27" s="3"/>
-      <x:c r="AB27" s="9"/>
-      <x:c r="AC27" s="9"/>
-      <x:c r="AD27" s="9"/>
-      <x:c r="AE27" s="9"/>
-      <x:c r="AF27" s="9"/>
-      <x:c r="AG27" s="9"/>
-      <x:c r="AH27" s="9"/>
+      <x:c r="AB27" s="4"/>
+      <x:c r="AC27" s="4"/>
+      <x:c r="AD27" s="4"/>
+      <x:c r="AE27" s="4"/>
+      <x:c r="AF27" s="4"/>
+      <x:c r="AG27" s="4"/>
+      <x:c r="AH27" s="4"/>
       <x:c r="AI27" s="3"/>
       <x:c r="AJ27" s="3"/>
       <x:c r="AK27" s="3"/>
       <x:c r="AL27" s="3"/>
-      <x:c r="AM27" s="9"/>
-      <x:c r="AN27" s="9"/>
-      <x:c r="AO27" s="9"/>
-      <x:c r="AP27" s="9"/>
-      <x:c r="AQ27" s="9"/>
+      <x:c r="AM27" s="4"/>
+      <x:c r="AN27" s="4"/>
+      <x:c r="AO27" s="4"/>
+      <x:c r="AP27" s="4"/>
+      <x:c r="AQ27" s="4"/>
       <x:c r="AR27" s="3"/>
       <x:c r="AS27" s="3"/>
       <x:c r="AT27" s="3"/>
@@ -7932,31 +7906,31 @@
       <x:c r="P28" s="3"/>
       <x:c r="Q28" s="3"/>
       <x:c r="R28" s="3"/>
-      <x:c r="S28" s="9"/>
-      <x:c r="T28" s="9"/>
-      <x:c r="U28" s="9"/>
-      <x:c r="V28" s="9"/>
-      <x:c r="W28" s="9"/>
+      <x:c r="S28" s="4"/>
+      <x:c r="T28" s="4"/>
+      <x:c r="U28" s="4"/>
+      <x:c r="V28" s="4"/>
+      <x:c r="W28" s="4"/>
       <x:c r="X28" s="3"/>
       <x:c r="Y28" s="3"/>
       <x:c r="Z28" s="3"/>
       <x:c r="AA28" s="3"/>
-      <x:c r="AB28" s="9"/>
-      <x:c r="AC28" s="9"/>
-      <x:c r="AD28" s="9"/>
-      <x:c r="AE28" s="9"/>
-      <x:c r="AF28" s="9"/>
-      <x:c r="AG28" s="9"/>
+      <x:c r="AB28" s="4"/>
+      <x:c r="AC28" s="4"/>
+      <x:c r="AD28" s="4"/>
+      <x:c r="AE28" s="4"/>
+      <x:c r="AF28" s="4"/>
+      <x:c r="AG28" s="4"/>
       <x:c r="AH28" s="3"/>
       <x:c r="AI28" s="3"/>
       <x:c r="AJ28" s="3"/>
       <x:c r="AK28" s="3"/>
       <x:c r="AL28" s="3"/>
-      <x:c r="AM28" s="9"/>
-      <x:c r="AN28" s="9"/>
-      <x:c r="AO28" s="9"/>
-      <x:c r="AP28" s="9"/>
-      <x:c r="AQ28" s="9"/>
+      <x:c r="AM28" s="4"/>
+      <x:c r="AN28" s="4"/>
+      <x:c r="AO28" s="4"/>
+      <x:c r="AP28" s="4"/>
+      <x:c r="AQ28" s="4"/>
       <x:c r="AR28" s="3"/>
       <x:c r="AS28" s="3"/>
       <x:c r="AT28" s="3"/>
@@ -7993,10 +7967,10 @@
       <x:c r="Q29" s="3"/>
       <x:c r="R29" s="3"/>
       <x:c r="S29" s="3"/>
-      <x:c r="T29" s="9"/>
-      <x:c r="U29" s="9"/>
-      <x:c r="V29" s="9"/>
-      <x:c r="W29" s="9"/>
+      <x:c r="T29" s="4"/>
+      <x:c r="U29" s="4"/>
+      <x:c r="V29" s="4"/>
+      <x:c r="W29" s="4"/>
       <x:c r="X29" s="3"/>
       <x:c r="Y29" s="3"/>
       <x:c r="Z29" s="3"/>
@@ -8004,7 +7978,7 @@
       <x:c r="AB29" s="3"/>
       <x:c r="AC29" s="3"/>
       <x:c r="AD29" s="3"/>
-      <x:c r="AE29" s="9"/>
+      <x:c r="AE29" s="4"/>
       <x:c r="AF29" s="3"/>
       <x:c r="AG29" s="3"/>
       <x:c r="AH29" s="3"/>
@@ -8012,10 +7986,10 @@
       <x:c r="AJ29" s="3"/>
       <x:c r="AK29" s="3"/>
       <x:c r="AL29" s="3"/>
-      <x:c r="AM29" s="9"/>
-      <x:c r="AN29" s="9"/>
-      <x:c r="AO29" s="9"/>
-      <x:c r="AP29" s="9"/>
+      <x:c r="AM29" s="4"/>
+      <x:c r="AN29" s="4"/>
+      <x:c r="AO29" s="4"/>
+      <x:c r="AP29" s="4"/>
       <x:c r="AQ29" s="3"/>
       <x:c r="AR29" s="3"/>
       <x:c r="AS29" s="3"/>
@@ -8054,9 +8028,9 @@
       <x:c r="R30" s="3"/>
       <x:c r="S30" s="3"/>
       <x:c r="T30" s="3"/>
-      <x:c r="U30" s="9"/>
-      <x:c r="V30" s="9"/>
-      <x:c r="W30" s="9"/>
+      <x:c r="U30" s="4"/>
+      <x:c r="V30" s="4"/>
+      <x:c r="W30" s="4"/>
       <x:c r="X30" s="3"/>
       <x:c r="Y30" s="3"/>
       <x:c r="Z30" s="3"/>
@@ -8064,7 +8038,7 @@
       <x:c r="AB30" s="3"/>
       <x:c r="AC30" s="3"/>
       <x:c r="AD30" s="3"/>
-      <x:c r="AE30" s="9"/>
+      <x:c r="AE30" s="4"/>
       <x:c r="AF30" s="3"/>
       <x:c r="AG30" s="3"/>
       <x:c r="AH30" s="3"/>
@@ -8072,9 +8046,9 @@
       <x:c r="AJ30" s="3"/>
       <x:c r="AK30" s="3"/>
       <x:c r="AL30" s="3"/>
-      <x:c r="AM30" s="9"/>
-      <x:c r="AN30" s="9"/>
-      <x:c r="AO30" s="9"/>
+      <x:c r="AM30" s="4"/>
+      <x:c r="AN30" s="4"/>
+      <x:c r="AO30" s="4"/>
       <x:c r="AP30" s="3"/>
       <x:c r="AQ30" s="3"/>
       <x:c r="AR30" s="3"/>
@@ -8113,28 +8087,28 @@
       <x:c r="Q31" s="3"/>
       <x:c r="R31" s="3"/>
       <x:c r="S31" s="3"/>
-      <x:c r="T31" s="11"/>
-      <x:c r="U31" s="9"/>
-      <x:c r="V31" s="9"/>
-      <x:c r="W31" s="9"/>
-      <x:c r="X31" s="9"/>
-      <x:c r="Y31" s="11"/>
+      <x:c r="T31" s="9"/>
+      <x:c r="U31" s="4"/>
+      <x:c r="V31" s="4"/>
+      <x:c r="W31" s="4"/>
+      <x:c r="X31" s="4"/>
+      <x:c r="Y31" s="9"/>
       <x:c r="Z31" s="3"/>
-      <x:c r="AA31" s="11"/>
+      <x:c r="AA31" s="9"/>
       <x:c r="AB31" s="3"/>
       <x:c r="AC31" s="3"/>
       <x:c r="AD31" s="3"/>
-      <x:c r="AE31" s="9"/>
-      <x:c r="AF31" s="11"/>
+      <x:c r="AE31" s="4"/>
+      <x:c r="AF31" s="9"/>
       <x:c r="AG31" s="3"/>
       <x:c r="AH31" s="3"/>
       <x:c r="AI31" s="3"/>
       <x:c r="AJ31" s="3"/>
       <x:c r="AK31" s="3"/>
-      <x:c r="AL31" s="9"/>
-      <x:c r="AM31" s="9"/>
-      <x:c r="AN31" s="9"/>
-      <x:c r="AO31" s="9"/>
+      <x:c r="AL31" s="4"/>
+      <x:c r="AM31" s="4"/>
+      <x:c r="AN31" s="4"/>
+      <x:c r="AO31" s="4"/>
       <x:c r="AP31" s="3"/>
       <x:c r="AQ31" s="3"/>
       <x:c r="AR31" s="3"/>
@@ -8174,27 +8148,27 @@
       <x:c r="R32" s="3"/>
       <x:c r="S32" s="3"/>
       <x:c r="T32" s="3"/>
-      <x:c r="U32" s="9"/>
-      <x:c r="V32" s="9"/>
-      <x:c r="W32" s="9"/>
-      <x:c r="X32" s="9"/>
-      <x:c r="Y32" s="9"/>
+      <x:c r="U32" s="4"/>
+      <x:c r="V32" s="4"/>
+      <x:c r="W32" s="4"/>
+      <x:c r="X32" s="4"/>
+      <x:c r="Y32" s="4"/>
       <x:c r="Z32" s="3"/>
       <x:c r="AA32" s="3"/>
       <x:c r="AB32" s="3"/>
       <x:c r="AC32" s="3"/>
       <x:c r="AD32" s="3"/>
-      <x:c r="AE32" s="9"/>
+      <x:c r="AE32" s="4"/>
       <x:c r="AF32" s="3"/>
       <x:c r="AG32" s="3"/>
       <x:c r="AH32" s="3"/>
       <x:c r="AI32" s="3"/>
       <x:c r="AJ32" s="3"/>
-      <x:c r="AK32" s="9"/>
-      <x:c r="AL32" s="9"/>
-      <x:c r="AM32" s="9"/>
-      <x:c r="AN32" s="9"/>
-      <x:c r="AO32" s="9"/>
+      <x:c r="AK32" s="4"/>
+      <x:c r="AL32" s="4"/>
+      <x:c r="AM32" s="4"/>
+      <x:c r="AN32" s="4"/>
+      <x:c r="AO32" s="4"/>
       <x:c r="AP32" s="3"/>
       <x:c r="AQ32" s="3"/>
       <x:c r="AR32" s="3"/>
@@ -8235,25 +8209,25 @@
       <x:c r="S33" s="3"/>
       <x:c r="T33" s="3"/>
       <x:c r="U33" s="3"/>
-      <x:c r="V33" s="9"/>
-      <x:c r="W33" s="9"/>
-      <x:c r="X33" s="9"/>
-      <x:c r="Y33" s="9"/>
-      <x:c r="Z33" s="9"/>
-      <x:c r="AA33" s="9"/>
-      <x:c r="AB33" s="9"/>
-      <x:c r="AC33" s="9"/>
-      <x:c r="AD33" s="9"/>
-      <x:c r="AE33" s="9"/>
-      <x:c r="AF33" s="9"/>
-      <x:c r="AG33" s="9"/>
-      <x:c r="AH33" s="9"/>
-      <x:c r="AI33" s="9"/>
-      <x:c r="AJ33" s="9"/>
-      <x:c r="AK33" s="9"/>
-      <x:c r="AL33" s="9"/>
-      <x:c r="AM33" s="9"/>
-      <x:c r="AN33" s="9"/>
+      <x:c r="V33" s="4"/>
+      <x:c r="W33" s="4"/>
+      <x:c r="X33" s="4"/>
+      <x:c r="Y33" s="4"/>
+      <x:c r="Z33" s="4"/>
+      <x:c r="AA33" s="4"/>
+      <x:c r="AB33" s="4"/>
+      <x:c r="AC33" s="4"/>
+      <x:c r="AD33" s="4"/>
+      <x:c r="AE33" s="4"/>
+      <x:c r="AF33" s="4"/>
+      <x:c r="AG33" s="4"/>
+      <x:c r="AH33" s="4"/>
+      <x:c r="AI33" s="4"/>
+      <x:c r="AJ33" s="4"/>
+      <x:c r="AK33" s="4"/>
+      <x:c r="AL33" s="4"/>
+      <x:c r="AM33" s="4"/>
+      <x:c r="AN33" s="4"/>
       <x:c r="AO33" s="3"/>
       <x:c r="AP33" s="3"/>
       <x:c r="AQ33" s="3"/>
@@ -8297,21 +8271,21 @@
       <x:c r="U34" s="3"/>
       <x:c r="V34" s="3"/>
       <x:c r="W34" s="3"/>
-      <x:c r="X34" s="9"/>
-      <x:c r="Y34" s="9"/>
-      <x:c r="Z34" s="9"/>
-      <x:c r="AA34" s="9"/>
-      <x:c r="AB34" s="9"/>
-      <x:c r="AC34" s="9"/>
-      <x:c r="AD34" s="9"/>
-      <x:c r="AE34" s="9"/>
-      <x:c r="AF34" s="9"/>
-      <x:c r="AG34" s="9"/>
-      <x:c r="AH34" s="9"/>
-      <x:c r="AI34" s="9"/>
-      <x:c r="AJ34" s="9"/>
-      <x:c r="AK34" s="9"/>
-      <x:c r="AL34" s="9"/>
+      <x:c r="X34" s="4"/>
+      <x:c r="Y34" s="4"/>
+      <x:c r="Z34" s="4"/>
+      <x:c r="AA34" s="4"/>
+      <x:c r="AB34" s="4"/>
+      <x:c r="AC34" s="4"/>
+      <x:c r="AD34" s="4"/>
+      <x:c r="AE34" s="4"/>
+      <x:c r="AF34" s="4"/>
+      <x:c r="AG34" s="4"/>
+      <x:c r="AH34" s="4"/>
+      <x:c r="AI34" s="4"/>
+      <x:c r="AJ34" s="4"/>
+      <x:c r="AK34" s="4"/>
+      <x:c r="AL34" s="4"/>
       <x:c r="AM34" s="3"/>
       <x:c r="AN34" s="3"/>
       <x:c r="AO34" s="3"/>
@@ -8361,13 +8335,13 @@
       <x:c r="Y35" s="3"/>
       <x:c r="Z35" s="3"/>
       <x:c r="AA35" s="3"/>
-      <x:c r="AB35" s="9"/>
-      <x:c r="AC35" s="9"/>
-      <x:c r="AD35" s="9"/>
-      <x:c r="AE35" s="9"/>
-      <x:c r="AF35" s="9"/>
-      <x:c r="AG35" s="9"/>
-      <x:c r="AH35" s="9"/>
+      <x:c r="AB35" s="4"/>
+      <x:c r="AC35" s="4"/>
+      <x:c r="AD35" s="4"/>
+      <x:c r="AE35" s="4"/>
+      <x:c r="AF35" s="4"/>
+      <x:c r="AG35" s="4"/>
+      <x:c r="AH35" s="4"/>
       <x:c r="AI35" s="3"/>
       <x:c r="AJ35" s="3"/>
       <x:c r="AK35" s="3"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18950" windowHeight="7120" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="9300" windowHeight="6300" activeTab="3"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Map0" sheetId="1" r:id="rId4"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="26">
-  <x:si>
-    <x:t>B</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
   <x:si>
     <x:t>U</x:t>
   </x:si>
@@ -1215,16 +1212,16 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="BF1" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BG1" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="BI1" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="BI1" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="BJ1" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:62" customHeight="1">
@@ -1287,16 +1284,16 @@
       <x:c r="BC2" s="3"/>
       <x:c r="BD2" s="3"/>
       <x:c r="BF2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="BG2" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="BI2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="BJ2" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:62" customHeight="1">
@@ -1359,16 +1356,16 @@
       <x:c r="BC3" s="3"/>
       <x:c r="BD3" s="3"/>
       <x:c r="BF3" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="BG3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="BI3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="BJ3" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:62" customHeight="1">
@@ -1431,16 +1428,16 @@
       <x:c r="BC4" s="3"/>
       <x:c r="BD4" s="3"/>
       <x:c r="BF4" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="BG4" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="BI4" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ4" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:62" customHeight="1">
@@ -1503,16 +1500,16 @@
       <x:c r="BC5" s="3"/>
       <x:c r="BD5" s="3"/>
       <x:c r="BF5" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="BG5" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="BI5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BJ5" s="2" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="BJ5" s="2" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:62" customHeight="1">
@@ -1575,16 +1572,16 @@
       <x:c r="BC6" s="3"/>
       <x:c r="BD6" s="3"/>
       <x:c r="BF6" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="BG6" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="BI6" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BJ6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:56" customHeight="1">
@@ -1707,7 +1704,7 @@
       <x:c r="BC8" s="3"/>
       <x:c r="BD8" s="3"/>
       <x:c r="BG8" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:56" customHeight="1">
@@ -2631,7 +2628,7 @@
       <x:c r="P24" s="4"/>
       <x:c r="Q24" s="4"/>
       <x:c r="R24" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S24" s="4"/>
       <x:c r="T24" s="4"/>
@@ -2762,13 +2759,13 @@
       <x:c r="Y26" s="4"/>
       <x:c r="Z26" s="4"/>
       <x:c r="AA26" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AB26" s="4"/>
       <x:c r="AC26" s="4"/>
       <x:c r="AD26" s="4"/>
       <x:c r="AE26" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AF26" s="4"/>
       <x:c r="AG26" s="4"/>
@@ -3065,7 +3062,7 @@
       <x:c r="X31" s="3"/>
       <x:c r="Y31" s="4"/>
       <x:c r="Z31" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AA31" s="4"/>
       <x:c r="AB31" s="3"/>
@@ -3308,7 +3305,7 @@
       <x:c r="Y35" s="4"/>
       <x:c r="Z35" s="4"/>
       <x:c r="AA35" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AB35" s="3"/>
       <x:c r="AC35" s="3"/>
@@ -3719,16 +3716,16 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="BF1" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BG1" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="BI1" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="BI1" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="BJ1" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:62" customHeight="1">
@@ -3791,16 +3788,16 @@
       <x:c r="BC2" s="8"/>
       <x:c r="BD2" s="8"/>
       <x:c r="BF2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="BG2" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="BI2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="BJ2" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:62" customHeight="1">
@@ -3863,16 +3860,16 @@
       <x:c r="BC3" s="8"/>
       <x:c r="BD3" s="8"/>
       <x:c r="BF3" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="BG3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="BI3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="BJ3" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:62" customHeight="1">
@@ -3935,16 +3932,16 @@
       <x:c r="BC4" s="8"/>
       <x:c r="BD4" s="8"/>
       <x:c r="BF4" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="BG4" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="BI4" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ4" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:62" customHeight="1">
@@ -4007,16 +4004,16 @@
       <x:c r="BC5" s="8"/>
       <x:c r="BD5" s="8"/>
       <x:c r="BF5" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="BG5" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="BI5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BJ5" s="2" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="BJ5" s="2" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:62" customHeight="1">
@@ -4079,16 +4076,16 @@
       <x:c r="BC6" s="8"/>
       <x:c r="BD6" s="8"/>
       <x:c r="BF6" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="BG6" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="BI6" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BJ6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:56" customHeight="1">
@@ -4238,7 +4235,7 @@
       <x:c r="V9" s="8"/>
       <x:c r="W9" s="4"/>
       <x:c r="X9" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Y9" s="8"/>
       <x:c r="Z9" s="8"/>
@@ -4246,7 +4243,7 @@
       <x:c r="AB9" s="8"/>
       <x:c r="AC9" s="8"/>
       <x:c r="AD9" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AE9" s="4"/>
       <x:c r="AF9" s="8"/>
@@ -4545,7 +4542,7 @@
       <x:c r="Y14" s="4"/>
       <x:c r="Z14" s="4"/>
       <x:c r="AA14" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AB14" s="4"/>
       <x:c r="AC14" s="4"/>
@@ -4919,7 +4916,7 @@
       <x:c r="AK20" s="4"/>
       <x:c r="AL20" s="4"/>
       <x:c r="AM20" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AN20" s="4"/>
       <x:c r="AO20" s="8"/>
@@ -4965,7 +4962,7 @@
       <x:c r="U21" s="4"/>
       <x:c r="V21" s="4"/>
       <x:c r="W21" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="X21" s="4"/>
       <x:c r="Y21" s="4"/>
@@ -4975,7 +4972,7 @@
       <x:c r="AC21" s="4"/>
       <x:c r="AD21" s="4"/>
       <x:c r="AE21" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AF21" s="4"/>
       <x:c r="AG21" s="4"/>
@@ -5333,7 +5330,7 @@
       <x:c r="Y27" s="4"/>
       <x:c r="Z27" s="4"/>
       <x:c r="AA27" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AB27" s="4"/>
       <x:c r="AC27" s="4"/>
@@ -5513,13 +5510,13 @@
       <x:c r="W30" s="4"/>
       <x:c r="X30" s="4"/>
       <x:c r="Y30" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Z30" s="4"/>
       <x:c r="AA30" s="4"/>
       <x:c r="AB30" s="4"/>
       <x:c r="AC30" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AD30" s="4"/>
       <x:c r="AE30" s="4"/>
@@ -5572,7 +5569,7 @@
       <x:c r="R31" s="4"/>
       <x:c r="S31" s="4"/>
       <x:c r="T31" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U31" s="4"/>
       <x:c r="V31" s="4"/>
@@ -5587,7 +5584,7 @@
       <x:c r="AE31" s="4"/>
       <x:c r="AF31" s="4"/>
       <x:c r="AG31" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AH31" s="4"/>
       <x:c r="AI31" s="4"/>
@@ -5762,7 +5759,7 @@
       <x:c r="X34" s="4"/>
       <x:c r="Y34" s="4"/>
       <x:c r="Z34" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AA34" s="4"/>
       <x:c r="AB34" s="4"/>
@@ -5944,7 +5941,7 @@
       <x:c r="X37" s="4"/>
       <x:c r="Y37" s="4"/>
       <x:c r="Z37" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AA37" s="4"/>
       <x:c r="AB37" s="4"/>
@@ -6048,8 +6045,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:BJ38"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="BG20" activeCellId="0" sqref="BG20:BG20"/>
+    <x:sheetView topLeftCell="A4" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="BF25" activeCellId="0" sqref="BF25:BF25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.14999999999999857891" customHeight="1"/>
@@ -6234,16 +6231,16 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="BF1" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BG1" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="BI1" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="BI1" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="BJ1" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:62" customHeight="1">
@@ -6306,16 +6303,16 @@
       <x:c r="BC2" s="3"/>
       <x:c r="BD2" s="3"/>
       <x:c r="BF2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="BG2" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="BI2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="BJ2" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:62" customHeight="1">
@@ -6378,16 +6375,16 @@
       <x:c r="BC3" s="3"/>
       <x:c r="BD3" s="3"/>
       <x:c r="BF3" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="BG3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="BI3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="BJ3" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:62" customHeight="1">
@@ -6450,16 +6447,16 @@
       <x:c r="BC4" s="3"/>
       <x:c r="BD4" s="3"/>
       <x:c r="BF4" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="BG4" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="BI4" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ4" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:62" customHeight="1">
@@ -6522,16 +6519,16 @@
       <x:c r="BC5" s="3"/>
       <x:c r="BD5" s="3"/>
       <x:c r="BF5" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="BG5" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="BI5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BJ5" s="2" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="BJ5" s="2" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:62" customHeight="1">
@@ -6594,16 +6591,16 @@
       <x:c r="BC6" s="3"/>
       <x:c r="BD6" s="3"/>
       <x:c r="BF6" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="BG6" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="BI6" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BJ6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:56" customHeight="1">
@@ -6726,7 +6723,7 @@
       <x:c r="BC8" s="3"/>
       <x:c r="BD8" s="3"/>
       <x:c r="BG8" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:56" customHeight="1">
@@ -6817,7 +6814,7 @@
       <x:c r="W10" s="4"/>
       <x:c r="X10" s="4"/>
       <x:c r="Y10" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z10" s="4"/>
       <x:c r="AA10" s="4"/>
@@ -6831,7 +6828,7 @@
       <x:c r="AI10" s="4"/>
       <x:c r="AJ10" s="4"/>
       <x:c r="AK10" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AL10" s="4"/>
       <x:c r="AM10" s="4"/>
@@ -7059,7 +7056,7 @@
       <x:c r="U14" s="4"/>
       <x:c r="V14" s="4"/>
       <x:c r="W14" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="X14" s="4"/>
       <x:c r="Y14" s="3"/>
@@ -7077,7 +7074,7 @@
       <x:c r="AK14" s="3"/>
       <x:c r="AL14" s="4"/>
       <x:c r="AM14" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AN14" s="4"/>
       <x:c r="AO14" s="4"/>
@@ -7483,7 +7480,7 @@
       <x:c r="U21" s="4"/>
       <x:c r="V21" s="4"/>
       <x:c r="W21" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="X21" s="10"/>
       <x:c r="Y21" s="3"/>
@@ -7501,7 +7498,7 @@
       <x:c r="AK21" s="3"/>
       <x:c r="AL21" s="4"/>
       <x:c r="AM21" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AN21" s="4"/>
       <x:c r="AO21" s="4"/>
@@ -7785,7 +7782,7 @@
       <x:c r="S26" s="4"/>
       <x:c r="T26" s="4"/>
       <x:c r="U26" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V26" s="4"/>
       <x:c r="W26" s="4"/>
@@ -7807,7 +7804,7 @@
       <x:c r="AM26" s="4"/>
       <x:c r="AN26" s="4"/>
       <x:c r="AO26" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AP26" s="4"/>
       <x:c r="AQ26" s="4"/>
@@ -8278,7 +8275,9 @@
       <x:c r="AB34" s="4"/>
       <x:c r="AC34" s="4"/>
       <x:c r="AD34" s="4"/>
-      <x:c r="AE34" s="4"/>
+      <x:c r="AE34" s="10" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="AF34" s="4"/>
       <x:c r="AG34" s="4"/>
       <x:c r="AH34" s="4"/>
@@ -8556,8 +8555,8 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="A1:BJ38"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="Q42" activeCellId="0" sqref="Q42:Q42"/>
+    <x:sheetView tabSelected="1" topLeftCell="M7" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="AV29" activeCellId="0" sqref="AV29:AV29"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="29.14999999999999857891"/>
@@ -8742,16 +8741,16 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="BF1" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BG1" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="BI1" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="BI1" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="BJ1" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:62" ht="35.14999999999999857891" customHeight="1">
@@ -8814,16 +8813,16 @@
       <x:c r="BC2" s="3"/>
       <x:c r="BD2" s="3"/>
       <x:c r="BF2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="BG2" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="BI2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="BJ2" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:62" ht="35.14999999999999857891" customHeight="1">
@@ -8886,16 +8885,16 @@
       <x:c r="BC3" s="3"/>
       <x:c r="BD3" s="3"/>
       <x:c r="BF3" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="BG3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="BI3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="BJ3" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:62" ht="35.14999999999999857891" customHeight="1">
@@ -8958,16 +8957,16 @@
       <x:c r="BC4" s="3"/>
       <x:c r="BD4" s="3"/>
       <x:c r="BF4" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="BG4" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="BI4" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ4" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:62" ht="35.14999999999999857891" customHeight="1">
@@ -9030,16 +9029,16 @@
       <x:c r="BC5" s="3"/>
       <x:c r="BD5" s="3"/>
       <x:c r="BF5" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="BG5" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="BI5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BJ5" s="2" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="BJ5" s="2" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:62" ht="35.14999999999999857891" customHeight="1">
@@ -9102,16 +9101,16 @@
       <x:c r="BC6" s="3"/>
       <x:c r="BD6" s="3"/>
       <x:c r="BF6" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="BG6" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="BI6" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BJ6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:56" ht="35.14999999999999857891" customHeight="1">
@@ -9324,10 +9323,10 @@
       <x:c r="Y10" s="3"/>
       <x:c r="Z10" s="3"/>
       <x:c r="AA10" s="3"/>
-      <x:c r="AB10" s="3"/>
-      <x:c r="AC10" s="3"/>
-      <x:c r="AD10" s="3"/>
-      <x:c r="AE10" s="3"/>
+      <x:c r="AB10" s="4"/>
+      <x:c r="AC10" s="4"/>
+      <x:c r="AD10" s="4"/>
+      <x:c r="AE10" s="4"/>
       <x:c r="AF10" s="3"/>
       <x:c r="AG10" s="3"/>
       <x:c r="AH10" s="3"/>
@@ -9381,16 +9380,16 @@
       <x:c r="V11" s="3"/>
       <x:c r="W11" s="3"/>
       <x:c r="X11" s="3"/>
-      <x:c r="Y11" s="3"/>
-      <x:c r="Z11" s="3"/>
-      <x:c r="AA11" s="3"/>
-      <x:c r="AB11" s="3"/>
-      <x:c r="AC11" s="3"/>
-      <x:c r="AD11" s="3"/>
-      <x:c r="AE11" s="3"/>
-      <x:c r="AF11" s="3"/>
-      <x:c r="AG11" s="3"/>
-      <x:c r="AH11" s="3"/>
+      <x:c r="Y11" s="4"/>
+      <x:c r="Z11" s="4"/>
+      <x:c r="AA11" s="4"/>
+      <x:c r="AB11" s="4"/>
+      <x:c r="AC11" s="4"/>
+      <x:c r="AD11" s="4"/>
+      <x:c r="AE11" s="4"/>
+      <x:c r="AF11" s="4"/>
+      <x:c r="AG11" s="4"/>
+      <x:c r="AH11" s="4"/>
       <x:c r="AI11" s="3"/>
       <x:c r="AJ11" s="3"/>
       <x:c r="AK11" s="3"/>
@@ -9439,20 +9438,20 @@
       <x:c r="T12" s="3"/>
       <x:c r="U12" s="3"/>
       <x:c r="V12" s="3"/>
-      <x:c r="W12" s="3"/>
-      <x:c r="X12" s="3"/>
-      <x:c r="Y12" s="3"/>
-      <x:c r="Z12" s="3"/>
-      <x:c r="AA12" s="3"/>
-      <x:c r="AB12" s="3"/>
-      <x:c r="AC12" s="3"/>
-      <x:c r="AD12" s="3"/>
-      <x:c r="AE12" s="3"/>
-      <x:c r="AF12" s="3"/>
-      <x:c r="AG12" s="3"/>
-      <x:c r="AH12" s="3"/>
-      <x:c r="AI12" s="3"/>
-      <x:c r="AJ12" s="3"/>
+      <x:c r="W12" s="4"/>
+      <x:c r="X12" s="4"/>
+      <x:c r="Y12" s="4"/>
+      <x:c r="Z12" s="4"/>
+      <x:c r="AA12" s="4"/>
+      <x:c r="AB12" s="4"/>
+      <x:c r="AC12" s="4"/>
+      <x:c r="AD12" s="4"/>
+      <x:c r="AE12" s="4"/>
+      <x:c r="AF12" s="4"/>
+      <x:c r="AG12" s="4"/>
+      <x:c r="AH12" s="4"/>
+      <x:c r="AI12" s="4"/>
+      <x:c r="AJ12" s="4"/>
       <x:c r="AK12" s="3"/>
       <x:c r="AL12" s="3"/>
       <x:c r="AM12" s="3"/>
@@ -9498,22 +9497,22 @@
       <x:c r="S13" s="3"/>
       <x:c r="T13" s="3"/>
       <x:c r="U13" s="3"/>
-      <x:c r="V13" s="3"/>
-      <x:c r="W13" s="3"/>
-      <x:c r="X13" s="3"/>
-      <x:c r="Y13" s="3"/>
+      <x:c r="V13" s="4"/>
+      <x:c r="W13" s="4"/>
+      <x:c r="X13" s="4"/>
+      <x:c r="Y13" s="4"/>
       <x:c r="Z13" s="3"/>
       <x:c r="AA13" s="3"/>
-      <x:c r="AB13" s="3"/>
-      <x:c r="AC13" s="3"/>
-      <x:c r="AD13" s="3"/>
-      <x:c r="AE13" s="3"/>
+      <x:c r="AB13" s="4"/>
+      <x:c r="AC13" s="4"/>
+      <x:c r="AD13" s="4"/>
+      <x:c r="AE13" s="4"/>
       <x:c r="AF13" s="3"/>
       <x:c r="AG13" s="3"/>
-      <x:c r="AH13" s="3"/>
-      <x:c r="AI13" s="3"/>
-      <x:c r="AJ13" s="3"/>
-      <x:c r="AK13" s="3"/>
+      <x:c r="AH13" s="4"/>
+      <x:c r="AI13" s="4"/>
+      <x:c r="AJ13" s="4"/>
+      <x:c r="AK13" s="4"/>
       <x:c r="AL13" s="3"/>
       <x:c r="AM13" s="3"/>
       <x:c r="AN13" s="3"/>
@@ -9557,24 +9556,24 @@
       <x:c r="R14" s="3"/>
       <x:c r="S14" s="3"/>
       <x:c r="T14" s="3"/>
-      <x:c r="U14" s="3"/>
-      <x:c r="V14" s="3"/>
-      <x:c r="W14" s="3"/>
-      <x:c r="X14" s="3"/>
-      <x:c r="Y14" s="3"/>
+      <x:c r="U14" s="4"/>
+      <x:c r="V14" s="4"/>
+      <x:c r="W14" s="4"/>
+      <x:c r="X14" s="4"/>
+      <x:c r="Y14" s="4"/>
       <x:c r="Z14" s="3"/>
       <x:c r="AA14" s="3"/>
-      <x:c r="AB14" s="3"/>
-      <x:c r="AC14" s="3"/>
-      <x:c r="AD14" s="3"/>
-      <x:c r="AE14" s="3"/>
+      <x:c r="AB14" s="4"/>
+      <x:c r="AC14" s="4"/>
+      <x:c r="AD14" s="4"/>
+      <x:c r="AE14" s="4"/>
       <x:c r="AF14" s="3"/>
       <x:c r="AG14" s="3"/>
-      <x:c r="AH14" s="3"/>
-      <x:c r="AI14" s="3"/>
-      <x:c r="AJ14" s="3"/>
-      <x:c r="AK14" s="3"/>
-      <x:c r="AL14" s="3"/>
+      <x:c r="AH14" s="4"/>
+      <x:c r="AI14" s="4"/>
+      <x:c r="AJ14" s="4"/>
+      <x:c r="AK14" s="4"/>
+      <x:c r="AL14" s="4"/>
       <x:c r="AM14" s="3"/>
       <x:c r="AN14" s="3"/>
       <x:c r="AO14" s="3"/>
@@ -9616,26 +9615,26 @@
       <x:c r="Q15" s="3"/>
       <x:c r="R15" s="3"/>
       <x:c r="S15" s="3"/>
-      <x:c r="T15" s="3"/>
-      <x:c r="U15" s="3"/>
+      <x:c r="T15" s="4"/>
+      <x:c r="U15" s="4"/>
       <x:c r="V15" s="3"/>
       <x:c r="W15" s="3"/>
-      <x:c r="X15" s="3"/>
-      <x:c r="Y15" s="3"/>
-      <x:c r="Z15" s="3"/>
-      <x:c r="AA15" s="3"/>
-      <x:c r="AB15" s="3"/>
-      <x:c r="AC15" s="3"/>
-      <x:c r="AD15" s="3"/>
-      <x:c r="AE15" s="3"/>
-      <x:c r="AF15" s="3"/>
-      <x:c r="AG15" s="3"/>
-      <x:c r="AH15" s="3"/>
-      <x:c r="AI15" s="3"/>
+      <x:c r="X15" s="4"/>
+      <x:c r="Y15" s="4"/>
+      <x:c r="Z15" s="4"/>
+      <x:c r="AA15" s="4"/>
+      <x:c r="AB15" s="4"/>
+      <x:c r="AC15" s="4"/>
+      <x:c r="AD15" s="4"/>
+      <x:c r="AE15" s="4"/>
+      <x:c r="AF15" s="4"/>
+      <x:c r="AG15" s="4"/>
+      <x:c r="AH15" s="4"/>
+      <x:c r="AI15" s="4"/>
       <x:c r="AJ15" s="3"/>
       <x:c r="AK15" s="3"/>
-      <x:c r="AL15" s="3"/>
-      <x:c r="AM15" s="3"/>
+      <x:c r="AL15" s="4"/>
+      <x:c r="AM15" s="4"/>
       <x:c r="AN15" s="3"/>
       <x:c r="AO15" s="3"/>
       <x:c r="AP15" s="3"/>
@@ -9676,26 +9675,30 @@
       <x:c r="Q16" s="3"/>
       <x:c r="R16" s="3"/>
       <x:c r="S16" s="3"/>
-      <x:c r="T16" s="3"/>
-      <x:c r="U16" s="3"/>
+      <x:c r="T16" s="4"/>
+      <x:c r="U16" s="4"/>
       <x:c r="V16" s="3"/>
       <x:c r="W16" s="3"/>
-      <x:c r="X16" s="3"/>
-      <x:c r="Y16" s="3"/>
-      <x:c r="Z16" s="3"/>
-      <x:c r="AA16" s="3"/>
+      <x:c r="X16" s="4"/>
+      <x:c r="Y16" s="4"/>
+      <x:c r="Z16" s="4"/>
+      <x:c r="AA16" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="AB16" s="4"/>
       <x:c r="AC16" s="4"/>
-      <x:c r="AD16" s="3"/>
-      <x:c r="AE16" s="3"/>
-      <x:c r="AF16" s="3"/>
-      <x:c r="AG16" s="3"/>
-      <x:c r="AH16" s="3"/>
-      <x:c r="AI16" s="3"/>
+      <x:c r="AD16" s="4"/>
+      <x:c r="AE16" s="4"/>
+      <x:c r="AF16" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AG16" s="4"/>
+      <x:c r="AH16" s="4"/>
+      <x:c r="AI16" s="4"/>
       <x:c r="AJ16" s="3"/>
       <x:c r="AK16" s="3"/>
-      <x:c r="AL16" s="3"/>
-      <x:c r="AM16" s="3"/>
+      <x:c r="AL16" s="4"/>
+      <x:c r="AM16" s="4"/>
       <x:c r="AN16" s="3"/>
       <x:c r="AO16" s="3"/>
       <x:c r="AP16" s="3"/>
@@ -9735,28 +9738,28 @@
       <x:c r="P17" s="3"/>
       <x:c r="Q17" s="3"/>
       <x:c r="R17" s="3"/>
-      <x:c r="S17" s="3"/>
-      <x:c r="T17" s="3"/>
-      <x:c r="U17" s="3"/>
-      <x:c r="V17" s="3"/>
-      <x:c r="W17" s="3"/>
-      <x:c r="X17" s="3"/>
-      <x:c r="Y17" s="3"/>
-      <x:c r="Z17" s="3"/>
-      <x:c r="AA17" s="3"/>
+      <x:c r="S17" s="4"/>
+      <x:c r="T17" s="4"/>
+      <x:c r="U17" s="4"/>
+      <x:c r="V17" s="4"/>
+      <x:c r="W17" s="4"/>
+      <x:c r="X17" s="4"/>
+      <x:c r="Y17" s="4"/>
+      <x:c r="Z17" s="4"/>
+      <x:c r="AA17" s="4"/>
       <x:c r="AB17" s="4"/>
       <x:c r="AC17" s="4"/>
       <x:c r="AD17" s="4"/>
       <x:c r="AE17" s="4"/>
       <x:c r="AF17" s="4"/>
       <x:c r="AG17" s="4"/>
-      <x:c r="AH17" s="3"/>
-      <x:c r="AI17" s="3"/>
-      <x:c r="AJ17" s="3"/>
-      <x:c r="AK17" s="3"/>
-      <x:c r="AL17" s="3"/>
-      <x:c r="AM17" s="3"/>
-      <x:c r="AN17" s="3"/>
+      <x:c r="AH17" s="4"/>
+      <x:c r="AI17" s="4"/>
+      <x:c r="AJ17" s="4"/>
+      <x:c r="AK17" s="4"/>
+      <x:c r="AL17" s="4"/>
+      <x:c r="AM17" s="4"/>
+      <x:c r="AN17" s="4"/>
       <x:c r="AO17" s="3"/>
       <x:c r="AP17" s="3"/>
       <x:c r="AQ17" s="3"/>
@@ -9795,12 +9798,12 @@
       <x:c r="P18" s="3"/>
       <x:c r="Q18" s="3"/>
       <x:c r="R18" s="3"/>
-      <x:c r="S18" s="3"/>
+      <x:c r="S18" s="4"/>
       <x:c r="T18" s="3"/>
       <x:c r="U18" s="3"/>
-      <x:c r="V18" s="3"/>
-      <x:c r="W18" s="3"/>
-      <x:c r="X18" s="3"/>
+      <x:c r="V18" s="4"/>
+      <x:c r="W18" s="4"/>
+      <x:c r="X18" s="4"/>
       <x:c r="Y18" s="4"/>
       <x:c r="Z18" s="4"/>
       <x:c r="AA18" s="4"/>
@@ -9813,10 +9816,10 @@
       <x:c r="AH18" s="4"/>
       <x:c r="AI18" s="4"/>
       <x:c r="AJ18" s="4"/>
-      <x:c r="AK18" s="3"/>
+      <x:c r="AK18" s="4"/>
       <x:c r="AL18" s="3"/>
       <x:c r="AM18" s="3"/>
-      <x:c r="AN18" s="3"/>
+      <x:c r="AN18" s="4"/>
       <x:c r="AO18" s="3"/>
       <x:c r="AP18" s="3"/>
       <x:c r="AQ18" s="3"/>
@@ -9855,28 +9858,32 @@
       <x:c r="P19" s="3"/>
       <x:c r="Q19" s="3"/>
       <x:c r="R19" s="3"/>
-      <x:c r="S19" s="3"/>
+      <x:c r="S19" s="4"/>
       <x:c r="T19" s="3"/>
       <x:c r="U19" s="3"/>
-      <x:c r="V19" s="3"/>
-      <x:c r="W19" s="3"/>
-      <x:c r="X19" s="3"/>
+      <x:c r="V19" s="4"/>
+      <x:c r="W19" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="X19" s="4"/>
       <x:c r="Y19" s="4"/>
       <x:c r="Z19" s="4"/>
       <x:c r="AA19" s="4"/>
-      <x:c r="AB19" s="4"/>
-      <x:c r="AC19" s="4"/>
-      <x:c r="AD19" s="4"/>
-      <x:c r="AE19" s="4"/>
+      <x:c r="AB19" s="6"/>
+      <x:c r="AC19" s="6"/>
+      <x:c r="AD19" s="6"/>
+      <x:c r="AE19" s="6"/>
       <x:c r="AF19" s="4"/>
       <x:c r="AG19" s="4"/>
       <x:c r="AH19" s="4"/>
       <x:c r="AI19" s="4"/>
-      <x:c r="AJ19" s="4"/>
-      <x:c r="AK19" s="3"/>
+      <x:c r="AJ19" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AK19" s="4"/>
       <x:c r="AL19" s="3"/>
       <x:c r="AM19" s="3"/>
-      <x:c r="AN19" s="3"/>
+      <x:c r="AN19" s="4"/>
       <x:c r="AO19" s="3"/>
       <x:c r="AP19" s="3"/>
       <x:c r="AQ19" s="3"/>
@@ -9914,30 +9921,30 @@
       <x:c r="O20" s="3"/>
       <x:c r="P20" s="3"/>
       <x:c r="Q20" s="3"/>
-      <x:c r="R20" s="3"/>
-      <x:c r="S20" s="3"/>
-      <x:c r="T20" s="3"/>
-      <x:c r="U20" s="3"/>
+      <x:c r="R20" s="4"/>
+      <x:c r="S20" s="4"/>
+      <x:c r="T20" s="4"/>
+      <x:c r="U20" s="4"/>
       <x:c r="V20" s="4"/>
       <x:c r="W20" s="4"/>
       <x:c r="X20" s="4"/>
       <x:c r="Y20" s="4"/>
       <x:c r="Z20" s="4"/>
-      <x:c r="AA20" s="4"/>
-      <x:c r="AB20" s="4"/>
-      <x:c r="AC20" s="4"/>
-      <x:c r="AD20" s="4"/>
-      <x:c r="AE20" s="4"/>
-      <x:c r="AF20" s="4"/>
+      <x:c r="AA20" s="6"/>
+      <x:c r="AB20" s="6"/>
+      <x:c r="AC20" s="6"/>
+      <x:c r="AD20" s="6"/>
+      <x:c r="AE20" s="6"/>
+      <x:c r="AF20" s="6"/>
       <x:c r="AG20" s="4"/>
       <x:c r="AH20" s="4"/>
       <x:c r="AI20" s="4"/>
       <x:c r="AJ20" s="4"/>
       <x:c r="AK20" s="4"/>
       <x:c r="AL20" s="4"/>
-      <x:c r="AM20" s="3"/>
-      <x:c r="AN20" s="3"/>
-      <x:c r="AO20" s="3"/>
+      <x:c r="AM20" s="4"/>
+      <x:c r="AN20" s="4"/>
+      <x:c r="AO20" s="4"/>
       <x:c r="AP20" s="3"/>
       <x:c r="AQ20" s="3"/>
       <x:c r="AR20" s="3"/>
@@ -9974,23 +9981,21 @@
       <x:c r="O21" s="3"/>
       <x:c r="P21" s="3"/>
       <x:c r="Q21" s="3"/>
-      <x:c r="R21" s="3"/>
-      <x:c r="S21" s="3"/>
-      <x:c r="T21" s="3"/>
-      <x:c r="U21" s="3"/>
+      <x:c r="R21" s="4"/>
+      <x:c r="S21" s="4"/>
+      <x:c r="T21" s="4"/>
+      <x:c r="U21" s="4"/>
       <x:c r="V21" s="4"/>
       <x:c r="W21" s="4"/>
       <x:c r="X21" s="4"/>
-      <x:c r="Y21" s="7"/>
-      <x:c r="Z21" s="7"/>
-      <x:c r="AA21" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="Y21" s="4"/>
+      <x:c r="Z21" s="4"/>
+      <x:c r="AA21" s="6"/>
       <x:c r="AB21" s="6"/>
       <x:c r="AC21" s="6"/>
       <x:c r="AD21" s="6"/>
-      <x:c r="AE21" s="4"/>
-      <x:c r="AF21" s="4"/>
+      <x:c r="AE21" s="6"/>
+      <x:c r="AF21" s="6"/>
       <x:c r="AG21" s="4"/>
       <x:c r="AH21" s="4"/>
       <x:c r="AI21" s="4"/>
@@ -9998,8 +10003,8 @@
       <x:c r="AK21" s="4"/>
       <x:c r="AL21" s="4"/>
       <x:c r="AM21" s="4"/>
-      <x:c r="AN21" s="3"/>
-      <x:c r="AO21" s="3"/>
+      <x:c r="AN21" s="4"/>
+      <x:c r="AO21" s="4"/>
       <x:c r="AP21" s="3"/>
       <x:c r="AQ21" s="3"/>
       <x:c r="AR21" s="3"/>
@@ -10036,23 +10041,21 @@
       <x:c r="O22" s="3"/>
       <x:c r="P22" s="3"/>
       <x:c r="Q22" s="3"/>
-      <x:c r="R22" s="3"/>
-      <x:c r="S22" s="3"/>
-      <x:c r="T22" s="3"/>
+      <x:c r="R22" s="4"/>
+      <x:c r="S22" s="4"/>
+      <x:c r="T22" s="4"/>
       <x:c r="U22" s="4"/>
       <x:c r="V22" s="4"/>
       <x:c r="W22" s="4"/>
-      <x:c r="X22" s="6"/>
-      <x:c r="Y22" s="5"/>
-      <x:c r="Z22" s="5"/>
-      <x:c r="AA22" s="7"/>
+      <x:c r="X22" s="4"/>
+      <x:c r="Y22" s="4"/>
+      <x:c r="Z22" s="4"/>
+      <x:c r="AA22" s="6"/>
       <x:c r="AB22" s="6"/>
-      <x:c r="AC22" s="7"/>
-      <x:c r="AD22" s="5"/>
+      <x:c r="AC22" s="6"/>
+      <x:c r="AD22" s="6"/>
       <x:c r="AE22" s="6"/>
-      <x:c r="AF22" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="AF22" s="6"/>
       <x:c r="AG22" s="4"/>
       <x:c r="AH22" s="4"/>
       <x:c r="AI22" s="4"/>
@@ -10060,8 +10063,8 @@
       <x:c r="AK22" s="4"/>
       <x:c r="AL22" s="4"/>
       <x:c r="AM22" s="4"/>
-      <x:c r="AN22" s="3"/>
-      <x:c r="AO22" s="3"/>
+      <x:c r="AN22" s="4"/>
+      <x:c r="AO22" s="4"/>
       <x:c r="AP22" s="3"/>
       <x:c r="AQ22" s="3"/>
       <x:c r="AR22" s="3"/>
@@ -10098,30 +10101,30 @@
       <x:c r="O23" s="3"/>
       <x:c r="P23" s="3"/>
       <x:c r="Q23" s="3"/>
-      <x:c r="R23" s="3"/>
-      <x:c r="S23" s="3"/>
-      <x:c r="T23" s="3"/>
+      <x:c r="R23" s="4"/>
+      <x:c r="S23" s="4"/>
+      <x:c r="T23" s="4"/>
       <x:c r="U23" s="4"/>
       <x:c r="V23" s="4"/>
-      <x:c r="W23" s="6"/>
-      <x:c r="X23" s="5"/>
-      <x:c r="Y23" s="7"/>
-      <x:c r="Z23" s="7"/>
-      <x:c r="AA23" s="4"/>
-      <x:c r="AB23" s="7"/>
-      <x:c r="AC23" s="7"/>
+      <x:c r="W23" s="4"/>
+      <x:c r="X23" s="4"/>
+      <x:c r="Y23" s="4"/>
+      <x:c r="Z23" s="4"/>
+      <x:c r="AA23" s="6"/>
+      <x:c r="AB23" s="6"/>
+      <x:c r="AC23" s="6"/>
       <x:c r="AD23" s="6"/>
-      <x:c r="AE23" s="5"/>
-      <x:c r="AF23" s="5"/>
-      <x:c r="AG23" s="7"/>
+      <x:c r="AE23" s="6"/>
+      <x:c r="AF23" s="6"/>
+      <x:c r="AG23" s="4"/>
       <x:c r="AH23" s="4"/>
       <x:c r="AI23" s="4"/>
       <x:c r="AJ23" s="4"/>
       <x:c r="AK23" s="4"/>
       <x:c r="AL23" s="4"/>
-      <x:c r="AM23" s="3"/>
-      <x:c r="AN23" s="3"/>
-      <x:c r="AO23" s="3"/>
+      <x:c r="AM23" s="4"/>
+      <x:c r="AN23" s="4"/>
+      <x:c r="AO23" s="4"/>
       <x:c r="AP23" s="3"/>
       <x:c r="AQ23" s="3"/>
       <x:c r="AR23" s="3"/>
@@ -10159,30 +10162,32 @@
       <x:c r="P24" s="3"/>
       <x:c r="Q24" s="3"/>
       <x:c r="R24" s="3"/>
-      <x:c r="S24" s="3"/>
+      <x:c r="S24" s="4"/>
       <x:c r="T24" s="3"/>
-      <x:c r="U24" s="4"/>
+      <x:c r="U24" s="3"/>
       <x:c r="V24" s="4"/>
-      <x:c r="W24" s="6"/>
-      <x:c r="X24" s="7"/>
-      <x:c r="Y24" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="W24" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="X24" s="4"/>
+      <x:c r="Y24" s="4"/>
       <x:c r="Z24" s="4"/>
-      <x:c r="AA24" s="7"/>
+      <x:c r="AA24" s="4"/>
       <x:c r="AB24" s="6"/>
       <x:c r="AC24" s="6"/>
-      <x:c r="AD24" s="4"/>
+      <x:c r="AD24" s="6"/>
       <x:c r="AE24" s="6"/>
-      <x:c r="AF24" s="6"/>
-      <x:c r="AG24" s="5"/>
+      <x:c r="AF24" s="4"/>
+      <x:c r="AG24" s="4"/>
       <x:c r="AH24" s="4"/>
       <x:c r="AI24" s="4"/>
-      <x:c r="AJ24" s="4"/>
-      <x:c r="AK24" s="3"/>
+      <x:c r="AJ24" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AK24" s="4"/>
       <x:c r="AL24" s="3"/>
       <x:c r="AM24" s="3"/>
-      <x:c r="AN24" s="3"/>
+      <x:c r="AN24" s="4"/>
       <x:c r="AO24" s="3"/>
       <x:c r="AP24" s="3"/>
       <x:c r="AQ24" s="3"/>
@@ -10221,30 +10226,28 @@
       <x:c r="P25" s="3"/>
       <x:c r="Q25" s="3"/>
       <x:c r="R25" s="3"/>
-      <x:c r="S25" s="3"/>
+      <x:c r="S25" s="4"/>
       <x:c r="T25" s="3"/>
-      <x:c r="U25" s="4"/>
-      <x:c r="V25" s="7"/>
-      <x:c r="W25" s="7"/>
-      <x:c r="X25" s="6"/>
-      <x:c r="Y25" s="6"/>
-      <x:c r="Z25" s="7"/>
-      <x:c r="AA25" s="5"/>
-      <x:c r="AB25" s="7"/>
-      <x:c r="AC25" s="5"/>
-      <x:c r="AD25" s="5"/>
-      <x:c r="AE25" s="6"/>
-      <x:c r="AF25" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AG25" s="7"/>
+      <x:c r="U25" s="3"/>
+      <x:c r="V25" s="4"/>
+      <x:c r="W25" s="4"/>
+      <x:c r="X25" s="4"/>
+      <x:c r="Y25" s="4"/>
+      <x:c r="Z25" s="4"/>
+      <x:c r="AA25" s="4"/>
+      <x:c r="AB25" s="4"/>
+      <x:c r="AC25" s="4"/>
+      <x:c r="AD25" s="4"/>
+      <x:c r="AE25" s="4"/>
+      <x:c r="AF25" s="4"/>
+      <x:c r="AG25" s="4"/>
       <x:c r="AH25" s="4"/>
-      <x:c r="AI25" s="3"/>
-      <x:c r="AJ25" s="3"/>
-      <x:c r="AK25" s="3"/>
+      <x:c r="AI25" s="4"/>
+      <x:c r="AJ25" s="4"/>
+      <x:c r="AK25" s="4"/>
       <x:c r="AL25" s="3"/>
       <x:c r="AM25" s="3"/>
-      <x:c r="AN25" s="3"/>
+      <x:c r="AN25" s="4"/>
       <x:c r="AO25" s="3"/>
       <x:c r="AP25" s="3"/>
       <x:c r="AQ25" s="3"/>
@@ -10283,30 +10286,28 @@
       <x:c r="P26" s="3"/>
       <x:c r="Q26" s="3"/>
       <x:c r="R26" s="3"/>
-      <x:c r="S26" s="3"/>
-      <x:c r="T26" s="3"/>
+      <x:c r="S26" s="4"/>
+      <x:c r="T26" s="4"/>
       <x:c r="U26" s="4"/>
-      <x:c r="V26" s="7"/>
-      <x:c r="W26" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="X26" s="5"/>
-      <x:c r="Y26" s="7"/>
-      <x:c r="Z26" s="5"/>
-      <x:c r="AA26" s="6"/>
-      <x:c r="AB26" s="7"/>
-      <x:c r="AC26" s="5"/>
+      <x:c r="V26" s="4"/>
+      <x:c r="W26" s="4"/>
+      <x:c r="X26" s="4"/>
+      <x:c r="Y26" s="4"/>
+      <x:c r="Z26" s="4"/>
+      <x:c r="AA26" s="4"/>
+      <x:c r="AB26" s="4"/>
+      <x:c r="AC26" s="4"/>
       <x:c r="AD26" s="4"/>
-      <x:c r="AE26" s="6"/>
-      <x:c r="AF26" s="7"/>
-      <x:c r="AG26" s="5"/>
+      <x:c r="AE26" s="4"/>
+      <x:c r="AF26" s="4"/>
+      <x:c r="AG26" s="4"/>
       <x:c r="AH26" s="4"/>
-      <x:c r="AI26" s="3"/>
-      <x:c r="AJ26" s="3"/>
-      <x:c r="AK26" s="3"/>
-      <x:c r="AL26" s="3"/>
-      <x:c r="AM26" s="3"/>
-      <x:c r="AN26" s="3"/>
+      <x:c r="AI26" s="4"/>
+      <x:c r="AJ26" s="4"/>
+      <x:c r="AK26" s="4"/>
+      <x:c r="AL26" s="4"/>
+      <x:c r="AM26" s="4"/>
+      <x:c r="AN26" s="4"/>
       <x:c r="AO26" s="3"/>
       <x:c r="AP26" s="3"/>
       <x:c r="AQ26" s="3"/>
@@ -10346,28 +10347,26 @@
       <x:c r="Q27" s="3"/>
       <x:c r="R27" s="3"/>
       <x:c r="S27" s="3"/>
-      <x:c r="T27" s="3"/>
+      <x:c r="T27" s="4"/>
       <x:c r="U27" s="4"/>
-      <x:c r="V27" s="7"/>
-      <x:c r="W27" s="5"/>
-      <x:c r="X27" s="7"/>
-      <x:c r="Y27" s="6"/>
-      <x:c r="Z27" s="6"/>
-      <x:c r="AA27" s="5"/>
-      <x:c r="AB27" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AC27" s="7"/>
-      <x:c r="AD27" s="5"/>
-      <x:c r="AE27" s="6"/>
-      <x:c r="AF27" s="7"/>
-      <x:c r="AG27" s="5"/>
+      <x:c r="V27" s="4"/>
+      <x:c r="W27" s="4"/>
+      <x:c r="X27" s="4"/>
+      <x:c r="Y27" s="4"/>
+      <x:c r="Z27" s="4"/>
+      <x:c r="AA27" s="4"/>
+      <x:c r="AB27" s="4"/>
+      <x:c r="AC27" s="4"/>
+      <x:c r="AD27" s="4"/>
+      <x:c r="AE27" s="4"/>
+      <x:c r="AF27" s="4"/>
+      <x:c r="AG27" s="4"/>
       <x:c r="AH27" s="4"/>
-      <x:c r="AI27" s="3"/>
-      <x:c r="AJ27" s="3"/>
-      <x:c r="AK27" s="3"/>
-      <x:c r="AL27" s="3"/>
-      <x:c r="AM27" s="3"/>
+      <x:c r="AI27" s="4"/>
+      <x:c r="AJ27" s="4"/>
+      <x:c r="AK27" s="4"/>
+      <x:c r="AL27" s="4"/>
+      <x:c r="AM27" s="4"/>
       <x:c r="AN27" s="3"/>
       <x:c r="AO27" s="3"/>
       <x:c r="AP27" s="3"/>
@@ -10408,28 +10407,26 @@
       <x:c r="Q28" s="3"/>
       <x:c r="R28" s="3"/>
       <x:c r="S28" s="3"/>
-      <x:c r="T28" s="3"/>
+      <x:c r="T28" s="4"/>
       <x:c r="U28" s="4"/>
       <x:c r="V28" s="4"/>
-      <x:c r="W28" s="7"/>
-      <x:c r="X28" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="Y28" s="6"/>
-      <x:c r="Z28" s="4"/>
-      <x:c r="AA28" s="7"/>
-      <x:c r="AB28" s="7"/>
-      <x:c r="AC28" s="5"/>
-      <x:c r="AD28" s="5"/>
-      <x:c r="AE28" s="7"/>
-      <x:c r="AF28" s="7"/>
-      <x:c r="AG28" s="4"/>
-      <x:c r="AH28" s="4"/>
-      <x:c r="AI28" s="3"/>
-      <x:c r="AJ28" s="3"/>
-      <x:c r="AK28" s="3"/>
-      <x:c r="AL28" s="3"/>
-      <x:c r="AM28" s="3"/>
+      <x:c r="W28" s="4"/>
+      <x:c r="X28" s="4"/>
+      <x:c r="Y28" s="3"/>
+      <x:c r="Z28" s="3"/>
+      <x:c r="AA28" s="4"/>
+      <x:c r="AB28" s="4"/>
+      <x:c r="AC28" s="4"/>
+      <x:c r="AD28" s="4"/>
+      <x:c r="AE28" s="4"/>
+      <x:c r="AF28" s="4"/>
+      <x:c r="AG28" s="3"/>
+      <x:c r="AH28" s="3"/>
+      <x:c r="AI28" s="4"/>
+      <x:c r="AJ28" s="4"/>
+      <x:c r="AK28" s="4"/>
+      <x:c r="AL28" s="4"/>
+      <x:c r="AM28" s="4"/>
       <x:c r="AN28" s="3"/>
       <x:c r="AO28" s="3"/>
       <x:c r="AP28" s="3"/>
@@ -10471,24 +10468,24 @@
       <x:c r="R29" s="3"/>
       <x:c r="S29" s="3"/>
       <x:c r="T29" s="3"/>
-      <x:c r="U29" s="3"/>
-      <x:c r="V29" s="7"/>
-      <x:c r="W29" s="5"/>
+      <x:c r="U29" s="4"/>
+      <x:c r="V29" s="4"/>
+      <x:c r="W29" s="4"/>
       <x:c r="X29" s="4"/>
-      <x:c r="Y29" s="7"/>
-      <x:c r="Z29" s="7"/>
-      <x:c r="AA29" s="6"/>
-      <x:c r="AB29" s="5"/>
-      <x:c r="AC29" s="7"/>
-      <x:c r="AD29" s="6"/>
-      <x:c r="AE29" s="6"/>
+      <x:c r="Y29" s="3"/>
+      <x:c r="Z29" s="3"/>
+      <x:c r="AA29" s="4"/>
+      <x:c r="AB29" s="4"/>
+      <x:c r="AC29" s="4"/>
+      <x:c r="AD29" s="4"/>
+      <x:c r="AE29" s="4"/>
       <x:c r="AF29" s="4"/>
       <x:c r="AG29" s="3"/>
       <x:c r="AH29" s="3"/>
-      <x:c r="AI29" s="3"/>
-      <x:c r="AJ29" s="3"/>
-      <x:c r="AK29" s="3"/>
-      <x:c r="AL29" s="3"/>
+      <x:c r="AI29" s="4"/>
+      <x:c r="AJ29" s="4"/>
+      <x:c r="AK29" s="4"/>
+      <x:c r="AL29" s="4"/>
       <x:c r="AM29" s="3"/>
       <x:c r="AN29" s="3"/>
       <x:c r="AO29" s="3"/>
@@ -10533,23 +10530,21 @@
       <x:c r="T30" s="3"/>
       <x:c r="U30" s="3"/>
       <x:c r="V30" s="4"/>
-      <x:c r="W30" s="7"/>
-      <x:c r="X30" s="5"/>
-      <x:c r="Y30" s="7"/>
-      <x:c r="Z30" s="5"/>
-      <x:c r="AA30" s="5"/>
-      <x:c r="AB30" s="6"/>
-      <x:c r="AC30" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="AD30" s="7"/>
-      <x:c r="AE30" s="6"/>
-      <x:c r="AF30" s="5"/>
+      <x:c r="W30" s="4"/>
+      <x:c r="X30" s="4"/>
+      <x:c r="Y30" s="4"/>
+      <x:c r="Z30" s="4"/>
+      <x:c r="AA30" s="4"/>
+      <x:c r="AB30" s="4"/>
+      <x:c r="AC30" s="4"/>
+      <x:c r="AD30" s="4"/>
+      <x:c r="AE30" s="4"/>
+      <x:c r="AF30" s="4"/>
       <x:c r="AG30" s="4"/>
-      <x:c r="AH30" s="3"/>
-      <x:c r="AI30" s="3"/>
-      <x:c r="AJ30" s="3"/>
-      <x:c r="AK30" s="3"/>
+      <x:c r="AH30" s="4"/>
+      <x:c r="AI30" s="4"/>
+      <x:c r="AJ30" s="4"/>
+      <x:c r="AK30" s="4"/>
       <x:c r="AL30" s="3"/>
       <x:c r="AM30" s="3"/>
       <x:c r="AN30" s="3"/>
@@ -10595,22 +10590,20 @@
       <x:c r="T31" s="3"/>
       <x:c r="U31" s="3"/>
       <x:c r="V31" s="3"/>
-      <x:c r="W31" s="3"/>
-      <x:c r="X31" s="7"/>
-      <x:c r="Y31" s="6"/>
-      <x:c r="Z31" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AA31" s="6"/>
-      <x:c r="AB31" s="7"/>
-      <x:c r="AC31" s="6"/>
-      <x:c r="AD31" s="6"/>
-      <x:c r="AE31" s="7"/>
-      <x:c r="AF31" s="5"/>
+      <x:c r="W31" s="4"/>
+      <x:c r="X31" s="4"/>
+      <x:c r="Y31" s="4"/>
+      <x:c r="Z31" s="4"/>
+      <x:c r="AA31" s="4"/>
+      <x:c r="AB31" s="4"/>
+      <x:c r="AC31" s="4"/>
+      <x:c r="AD31" s="4"/>
+      <x:c r="AE31" s="4"/>
+      <x:c r="AF31" s="4"/>
       <x:c r="AG31" s="4"/>
-      <x:c r="AH31" s="3"/>
-      <x:c r="AI31" s="3"/>
-      <x:c r="AJ31" s="3"/>
+      <x:c r="AH31" s="4"/>
+      <x:c r="AI31" s="4"/>
+      <x:c r="AJ31" s="4"/>
       <x:c r="AK31" s="3"/>
       <x:c r="AL31" s="3"/>
       <x:c r="AM31" s="3"/>
@@ -10658,21 +10651,19 @@
       <x:c r="U32" s="3"/>
       <x:c r="V32" s="3"/>
       <x:c r="W32" s="3"/>
-      <x:c r="X32" s="4"/>
+      <x:c r="X32" s="3"/>
       <x:c r="Y32" s="4"/>
-      <x:c r="Z32" s="5"/>
-      <x:c r="AA32" s="6"/>
-      <x:c r="AB32" s="7"/>
-      <x:c r="AC32" s="7"/>
-      <x:c r="AD32" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="AE32" s="5"/>
-      <x:c r="AF32" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
+      <x:c r="Z32" s="4"/>
+      <x:c r="AA32" s="4"/>
+      <x:c r="AB32" s="4"/>
+      <x:c r="AC32" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD32" s="4"/>
+      <x:c r="AE32" s="4"/>
+      <x:c r="AF32" s="4"/>
       <x:c r="AG32" s="4"/>
-      <x:c r="AH32" s="3"/>
+      <x:c r="AH32" s="4"/>
       <x:c r="AI32" s="3"/>
       <x:c r="AJ32" s="3"/>
       <x:c r="AK32" s="3"/>
@@ -10725,13 +10716,13 @@
       <x:c r="X33" s="3"/>
       <x:c r="Y33" s="3"/>
       <x:c r="Z33" s="3"/>
-      <x:c r="AA33" s="7"/>
-      <x:c r="AB33" s="6"/>
-      <x:c r="AC33" s="5"/>
-      <x:c r="AD33" s="6"/>
-      <x:c r="AE33" s="6"/>
-      <x:c r="AF33" s="6"/>
-      <x:c r="AG33" s="4"/>
+      <x:c r="AA33" s="3"/>
+      <x:c r="AB33" s="4"/>
+      <x:c r="AC33" s="4"/>
+      <x:c r="AD33" s="4"/>
+      <x:c r="AE33" s="4"/>
+      <x:c r="AF33" s="3"/>
+      <x:c r="AG33" s="3"/>
       <x:c r="AH33" s="3"/>
       <x:c r="AI33" s="3"/>
       <x:c r="AJ33" s="3"/>
@@ -10785,13 +10776,9 @@
       <x:c r="X34" s="3"/>
       <x:c r="Y34" s="3"/>
       <x:c r="Z34" s="3"/>
-      <x:c r="AA34" s="5"/>
-      <x:c r="AB34" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC34" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="AA34" s="3"/>
+      <x:c r="AB34" s="3"/>
+      <x:c r="AC34" s="3"/>
       <x:c r="AD34" s="3"/>
       <x:c r="AE34" s="3"/>
       <x:c r="AF34" s="3"/>
@@ -10849,9 +10836,9 @@
       <x:c r="X35" s="3"/>
       <x:c r="Y35" s="3"/>
       <x:c r="Z35" s="3"/>
-      <x:c r="AA35" s="4"/>
-      <x:c r="AB35" s="5"/>
-      <x:c r="AC35" s="5"/>
+      <x:c r="AA35" s="3"/>
+      <x:c r="AB35" s="3"/>
+      <x:c r="AC35" s="3"/>
       <x:c r="AD35" s="3"/>
       <x:c r="AE35" s="3"/>
       <x:c r="AF35" s="3"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B52310-4604-4930-9408-539724D74F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C80C2-85DD-454B-94A5-3DF1DE067A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2340" windowWidth="26720" windowHeight="14940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="2340" windowWidth="26720" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map0" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="26">
   <si>
     <t>Tile_Water</t>
   </si>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>Enemy_Knight</t>
+  </si>
+  <si>
+    <t>E_P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -711,8 +715,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="N7" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AK30" sqref="AK30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2747,7 +2751,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AA31" s="4"/>
       <c r="AB31" s="3"/>
@@ -13263,7 +13267,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C80C2-85DD-454B-94A5-3DF1DE067A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E02CC6-8561-496F-9020-E08BD40E7879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="2340" windowWidth="26720" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="27">
   <si>
     <t>Tile_Water</t>
   </si>
@@ -102,7 +102,11 @@
     <t>Enemy_Knight</t>
   </si>
   <si>
-    <t>E_P</t>
+    <t>E_N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_B</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -715,8 +719,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2929,7 +2933,9 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="4"/>
+      <c r="W34" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E02CC6-8561-496F-9020-E08BD40E7879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36E6399-053B-4846-B04C-78CB74A24C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="2340" windowWidth="26720" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Map0" sheetId="1" r:id="rId1"/>
-    <sheet name="Map1" sheetId="2" r:id="rId2"/>
-    <sheet name="Map2" sheetId="3" r:id="rId3"/>
-    <sheet name="Map3" sheetId="4" r:id="rId4"/>
-    <sheet name="Map4" sheetId="5" r:id="rId5"/>
-    <sheet name="Map5" sheetId="6" r:id="rId6"/>
+    <sheet name="Map0" sheetId="8" r:id="rId1"/>
+    <sheet name="Map00" sheetId="1" r:id="rId2"/>
+    <sheet name="Map11" sheetId="2" r:id="rId3"/>
+    <sheet name="Map22" sheetId="3" r:id="rId4"/>
+    <sheet name="Map33" sheetId="4" r:id="rId5"/>
+    <sheet name="Map44" sheetId="5" r:id="rId6"/>
+    <sheet name="Map55" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="29">
   <si>
     <t>Tile_Water</t>
   </si>
@@ -107,6 +108,14 @@
   </si>
   <si>
     <t>E_B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_P</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -715,12 +724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFE1B87-DEC1-4B1A-9003-6AA42CE0D50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="BG28" sqref="BG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1497,7 +1505,7 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="4"/>
+      <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
@@ -1547,17 +1555,17 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -1602,25 +1610,25 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="4"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
@@ -1659,28 +1667,28 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
@@ -1718,26 +1726,26 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
@@ -1780,24 +1788,24 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
@@ -1841,24 +1849,24 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
@@ -1900,10 +1908,10 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -1911,13 +1919,13 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
@@ -1953,15 +1961,15 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -1970,11 +1978,11 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
@@ -2011,16 +2019,16 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -2030,10 +2038,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
@@ -2073,27 +2081,27 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="4"/>
+      <c r="AA20" s="3"/>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
@@ -2133,28 +2141,30 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
@@ -2193,28 +2203,28 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
@@ -2253,32 +2263,32 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
@@ -2286,7 +2296,7 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="4"/>
+      <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
@@ -2312,32 +2322,30 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
@@ -2347,8 +2355,8 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
@@ -2375,29 +2383,29 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
       <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
@@ -2405,10 +2413,10 @@
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
@@ -2435,44 +2443,40 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
       <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
@@ -2498,38 +2502,38 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
       <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
@@ -2557,28 +2561,30 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
@@ -2617,27 +2623,27 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
       <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
+      <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
@@ -2693,10 +2699,10 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="4"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
@@ -2753,12 +2759,10 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="4"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
@@ -2814,11 +2818,11 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="4"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
@@ -2873,12 +2877,12 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="4"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
@@ -2933,14 +2937,12 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="4"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
@@ -2997,12 +2999,10 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="4"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
@@ -3061,8 +3061,10 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
@@ -3121,7 +3123,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="4"/>
+      <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
@@ -3220,20 +3222,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6" style="2" customWidth="1"/>
-    <col min="22" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5.58203125" style="2"/>
     <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
@@ -3737,15 +3737,15 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
@@ -3809,15 +3809,15 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -3869,15 +3869,15 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
@@ -3903,6 +3903,9 @@
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
+      <c r="BG8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -3929,19 +3932,15 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE9" s="4"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
@@ -3993,19 +3992,19 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
+      <c r="AI10" s="4"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
@@ -4054,18 +4053,18 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="4"/>
+      <c r="X11" s="3"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -4110,25 +4109,25 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="4"/>
+      <c r="X12" s="3"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
@@ -4167,28 +4166,28 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
@@ -4226,28 +4225,26 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
@@ -4290,12 +4287,12 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -4303,11 +4300,11 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
@@ -4351,28 +4348,28 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
       <c r="AK16" s="3"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
@@ -4410,16 +4407,16 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -4427,12 +4424,12 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
-      <c r="AI17" s="3"/>
+      <c r="AI17" s="4"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
-      <c r="AL17" s="4"/>
+      <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
-      <c r="AN17" s="4"/>
+      <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
@@ -4463,36 +4460,36 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
@@ -4521,38 +4518,38 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
@@ -4583,38 +4580,36 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN20" s="4"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
@@ -4645,40 +4640,36 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
-      <c r="AE21" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
@@ -4709,30 +4700,30 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="3"/>
+      <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
@@ -4769,15 +4760,15 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -4793,8 +4784,8 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
@@ -4802,7 +4793,7 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
+      <c r="AR23" s="4"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
@@ -4828,16 +4819,18 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
@@ -4852,7 +4845,7 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
+      <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
@@ -4861,8 +4854,8 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
@@ -4889,19 +4882,19 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -4909,9 +4902,9 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
@@ -4919,10 +4912,10 @@
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
@@ -4949,40 +4942,44 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
+      <c r="AA26" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
+      <c r="AE26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
@@ -5008,40 +5005,38 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
-      <c r="AA27" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
@@ -5069,23 +5064,23 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
@@ -5129,37 +5124,37 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
@@ -5195,35 +5190,31 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
@@ -5259,35 +5250,33 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
+      <c r="Z31" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
@@ -5323,31 +5312,31 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
@@ -5383,31 +5372,31 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
@@ -5443,33 +5432,33 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
@@ -5505,31 +5494,33 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
+      <c r="AA35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
@@ -5574,12 +5565,12 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
       <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
@@ -5634,14 +5625,12 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
       <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
@@ -5733,23 +5722,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BF25" sqref="BF25"/>
+    <sheetView topLeftCell="A2" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" style="2" customWidth="1"/>
+    <col min="22" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5.58203125" style="2"/>
     <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
@@ -6185,6 +6176,2522 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BF5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BF6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+    </row>
+    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+    </row>
+    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+    </row>
+    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+    </row>
+    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+    </row>
+    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+    </row>
+    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+    </row>
+    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+    </row>
+    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+    </row>
+    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+    </row>
+    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+    </row>
+    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+    </row>
+    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+    </row>
+    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+    </row>
+    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+    </row>
+    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+    </row>
+    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+    </row>
+    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+    </row>
+    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+    </row>
+    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+    </row>
+    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+    </row>
+    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+    </row>
+    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+    </row>
+    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+    </row>
+    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+    </row>
+    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+    </row>
+    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+    </row>
+    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+    </row>
+    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+    </row>
+    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+    </row>
+    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+    </row>
+    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:BJ38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="BF25" sqref="BF25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.58203125" style="2"/>
+    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
+    <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
+    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BF2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BF3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BF4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -8248,7 +10755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BJ38"/>
@@ -10752,7 +13259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BJ38"/>
@@ -13268,7 +15775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:BJ38"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36E6399-053B-4846-B04C-78CB74A24C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFADC50-8619-4DEF-80C1-3BCAA238D15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2340" windowWidth="26720" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11360" yWindow="1860" windowWidth="26720" windowHeight="14940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map0" sheetId="8" r:id="rId1"/>
-    <sheet name="Map00" sheetId="1" r:id="rId2"/>
-    <sheet name="Map11" sheetId="2" r:id="rId3"/>
-    <sheet name="Map22" sheetId="3" r:id="rId4"/>
-    <sheet name="Map33" sheetId="4" r:id="rId5"/>
-    <sheet name="Map44" sheetId="5" r:id="rId6"/>
-    <sheet name="Map55" sheetId="6" r:id="rId7"/>
+    <sheet name="Map1" sheetId="9" r:id="rId2"/>
+    <sheet name="Map00" sheetId="1" r:id="rId3"/>
+    <sheet name="Map11" sheetId="2" r:id="rId4"/>
+    <sheet name="Map22" sheetId="3" r:id="rId5"/>
+    <sheet name="Map33" sheetId="4" r:id="rId6"/>
+    <sheet name="Map44" sheetId="5" r:id="rId7"/>
+    <sheet name="Map55" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="29">
   <si>
     <t>Tile_Water</t>
   </si>
@@ -727,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFE1B87-DEC1-4B1A-9003-6AA42CE0D50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="BG28" sqref="BG28"/>
     </sheetView>
   </sheetViews>
@@ -3222,12 +3223,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082FA556-3BFE-4DB4-B0CD-0DFF2CBF3CD5}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="U13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AU18" sqref="AU18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4004,7 +4004,7 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="4"/>
+      <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
@@ -4054,17 +4054,17 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -4109,25 +4109,25 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="4"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
@@ -4166,28 +4166,28 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
@@ -4225,26 +4225,26 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
+      <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
@@ -4287,24 +4287,24 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
+      <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
@@ -4348,24 +4348,26 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
+      <c r="AF16" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
@@ -4407,19 +4409,19 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
@@ -4460,15 +4462,15 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -4478,15 +4480,15 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="3"/>
+      <c r="AG18" s="4"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
+      <c r="AK18" s="4"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
@@ -4518,16 +4520,16 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -4538,16 +4540,16 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
@@ -4580,33 +4582,33 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
@@ -4640,33 +4642,33 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
@@ -4700,29 +4702,29 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="4"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
@@ -4760,32 +4762,32 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
@@ -4793,7 +4795,7 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="4"/>
+      <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
@@ -4819,30 +4821,28 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="3"/>
@@ -4854,8 +4854,8 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
@@ -4882,29 +4882,29 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
       <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
+      <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
@@ -4912,10 +4912,10 @@
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
@@ -4942,44 +4942,40 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
@@ -5005,38 +5001,38 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
@@ -5064,29 +5060,29 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="4"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
@@ -5124,29 +5120,29 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
+      <c r="AE29" s="4"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
@@ -5200,12 +5196,12 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
+      <c r="AD30" s="4"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
@@ -5260,14 +5256,12 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA31" s="4"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
+      <c r="AD31" s="4"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
@@ -5321,11 +5315,11 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="4"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
@@ -5380,12 +5374,12 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="4"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
@@ -5440,14 +5434,14 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
@@ -5504,11 +5498,9 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
@@ -5568,7 +5560,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-      <c r="AA36" s="4"/>
+      <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
@@ -5628,7 +5620,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="4"/>
+      <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
@@ -5727,20 +5719,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6" style="2" customWidth="1"/>
-    <col min="22" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5.58203125" style="2"/>
     <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
@@ -6244,15 +6234,15 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
@@ -6316,15 +6306,15 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -6376,15 +6366,15 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
@@ -6410,6 +6400,9 @@
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
+      <c r="BG8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -6436,19 +6429,15 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE9" s="4"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
@@ -6500,19 +6489,19 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
+      <c r="AI10" s="4"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
@@ -6561,18 +6550,18 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="4"/>
+      <c r="X11" s="3"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -6617,25 +6606,25 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="4"/>
+      <c r="X12" s="3"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
@@ -6674,28 +6663,28 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
@@ -6733,28 +6722,26 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
@@ -6797,12 +6784,12 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -6810,11 +6797,11 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
@@ -6858,28 +6845,28 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
       <c r="AK16" s="3"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
@@ -6917,16 +6904,16 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -6934,12 +6921,12 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
-      <c r="AI17" s="3"/>
+      <c r="AI17" s="4"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
-      <c r="AL17" s="4"/>
+      <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
-      <c r="AN17" s="4"/>
+      <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
@@ -6970,36 +6957,36 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
@@ -7028,38 +7015,38 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
@@ -7090,38 +7077,36 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN20" s="4"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
@@ -7152,40 +7137,36 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
-      <c r="AE21" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
@@ -7216,30 +7197,30 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="3"/>
+      <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
@@ -7276,15 +7257,15 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -7300,8 +7281,8 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
@@ -7309,7 +7290,7 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
+      <c r="AR23" s="4"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
@@ -7335,16 +7316,18 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
@@ -7359,7 +7342,7 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
+      <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
@@ -7368,8 +7351,8 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
@@ -7396,19 +7379,19 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -7416,9 +7399,9 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
@@ -7426,10 +7409,10 @@
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
@@ -7456,40 +7439,44 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
+      <c r="AA26" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
+      <c r="AE26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
@@ -7515,40 +7502,38 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
-      <c r="AA27" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
@@ -7576,23 +7561,23 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
@@ -7636,37 +7621,37 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
@@ -7702,35 +7687,31 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
@@ -7766,35 +7747,33 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
+      <c r="Z31" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
@@ -7830,31 +7809,31 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
@@ -7890,31 +7869,31 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
@@ -7950,33 +7929,33 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
@@ -8012,31 +7991,33 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
+      <c r="AA35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
@@ -8081,12 +8062,12 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
       <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
@@ -8141,14 +8122,12 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
       <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
@@ -8240,23 +8219,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BF25" sqref="BF25"/>
+    <sheetView topLeftCell="A2" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" style="2" customWidth="1"/>
+    <col min="22" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5.58203125" style="2"/>
     <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
@@ -8692,6 +8673,2522 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BF5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BF6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+    </row>
+    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+    </row>
+    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+    </row>
+    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+    </row>
+    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+    </row>
+    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+    </row>
+    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+    </row>
+    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+    </row>
+    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+    </row>
+    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+    </row>
+    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+    </row>
+    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+    </row>
+    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+    </row>
+    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+    </row>
+    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+    </row>
+    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+    </row>
+    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+    </row>
+    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+    </row>
+    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+    </row>
+    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+    </row>
+    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+    </row>
+    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+    </row>
+    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+    </row>
+    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+    </row>
+    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+    </row>
+    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+    </row>
+    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+    </row>
+    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+    </row>
+    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+    </row>
+    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+    </row>
+    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+    </row>
+    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:BJ38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="BF25" sqref="BF25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.58203125" style="2"/>
+    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
+    <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
+    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BF2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BF3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BF4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -10755,7 +13252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BJ38"/>
@@ -13259,7 +15756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BJ38"/>
@@ -15775,7 +18272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:BJ38"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFADC50-8619-4DEF-80C1-3BCAA238D15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80E47C9-5FD9-4277-A02A-D18B97284551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="1860" windowWidth="26720" windowHeight="14940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map0" sheetId="8" r:id="rId1"/>
     <sheet name="Map1" sheetId="9" r:id="rId2"/>
-    <sheet name="Map00" sheetId="1" r:id="rId3"/>
-    <sheet name="Map11" sheetId="2" r:id="rId4"/>
-    <sheet name="Map22" sheetId="3" r:id="rId5"/>
-    <sheet name="Map33" sheetId="4" r:id="rId6"/>
-    <sheet name="Map44" sheetId="5" r:id="rId7"/>
-    <sheet name="Map55" sheetId="6" r:id="rId8"/>
+    <sheet name="Map1 (2)" sheetId="10" r:id="rId3"/>
+    <sheet name="Map00" sheetId="1" r:id="rId4"/>
+    <sheet name="Map11" sheetId="2" r:id="rId5"/>
+    <sheet name="Map22" sheetId="3" r:id="rId6"/>
+    <sheet name="Map33" sheetId="4" r:id="rId7"/>
+    <sheet name="Map44" sheetId="5" r:id="rId8"/>
+    <sheet name="Map55" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="29">
   <si>
     <t>Tile_Water</t>
   </si>
@@ -3226,8 +3227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082FA556-3BFE-4DB4-B0CD-0DFF2CBF3CD5}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AU18" sqref="AU18"/>
+    <sheetView topLeftCell="U7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AT18" sqref="AT18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5719,12 +5720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A4D35B-FB9C-4020-A4CB-73CCFA17EEAE}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="P22" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6501,7 +6501,7 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="4"/>
+      <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
@@ -6551,17 +6551,17 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -6606,25 +6606,25 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="4"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
@@ -6663,28 +6663,28 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
@@ -6722,26 +6722,26 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
@@ -6784,24 +6784,24 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
@@ -6845,24 +6845,24 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
@@ -6904,24 +6904,24 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
@@ -6957,15 +6957,15 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -6975,10 +6975,10 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
@@ -7015,16 +7015,16 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -7035,9 +7035,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
@@ -7077,27 +7077,27 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
@@ -7137,28 +7137,28 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
@@ -7197,28 +7197,28 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
@@ -7257,32 +7257,32 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
@@ -7290,7 +7290,7 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="4"/>
+      <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
@@ -7316,32 +7316,30 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
@@ -7351,8 +7349,8 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
@@ -7379,18 +7377,18 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -7398,10 +7396,10 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
@@ -7409,10 +7407,10 @@
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
@@ -7439,44 +7437,44 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
+      <c r="Z26" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="AA26" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
@@ -7502,19 +7500,19 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -7523,17 +7521,17 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
@@ -7561,29 +7559,29 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
-      <c r="AE28" s="3"/>
+      <c r="AE28" s="4"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
@@ -7621,29 +7619,29 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
@@ -7696,14 +7694,18 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
+      <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
+      <c r="AB30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE30" s="4"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
@@ -7758,14 +7760,16 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
+      <c r="AB31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
@@ -7818,14 +7822,14 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
@@ -7877,13 +7881,13 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
@@ -7937,14 +7941,14 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
@@ -8001,11 +8005,9 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
@@ -8065,7 +8067,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-      <c r="AA36" s="4"/>
+      <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
@@ -8125,7 +8127,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="4"/>
+      <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
@@ -8224,20 +8226,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6" style="2" customWidth="1"/>
-    <col min="22" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5.58203125" style="2"/>
     <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
@@ -8741,15 +8741,15 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
@@ -8813,15 +8813,15 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -8873,15 +8873,15 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
@@ -8907,6 +8907,9 @@
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
+      <c r="BG8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -8933,19 +8936,15 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE9" s="4"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
@@ -8997,19 +8996,19 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
+      <c r="AI10" s="4"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
@@ -9058,18 +9057,18 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="4"/>
+      <c r="X11" s="3"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -9114,25 +9113,25 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="4"/>
+      <c r="X12" s="3"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
@@ -9171,28 +9170,28 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
@@ -9230,28 +9229,26 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
@@ -9294,12 +9291,12 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -9307,11 +9304,11 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
@@ -9355,28 +9352,28 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
       <c r="AK16" s="3"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
@@ -9414,16 +9411,16 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -9431,12 +9428,12 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
-      <c r="AI17" s="3"/>
+      <c r="AI17" s="4"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
-      <c r="AL17" s="4"/>
+      <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
-      <c r="AN17" s="4"/>
+      <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
@@ -9467,36 +9464,36 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
@@ -9525,38 +9522,38 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
@@ -9587,38 +9584,36 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN20" s="4"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
@@ -9649,40 +9644,36 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
-      <c r="AE21" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
@@ -9713,30 +9704,30 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="3"/>
+      <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
@@ -9773,15 +9764,15 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -9797,8 +9788,8 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
@@ -9806,7 +9797,7 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
+      <c r="AR23" s="4"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
@@ -9832,16 +9823,18 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
@@ -9856,7 +9849,7 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
+      <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
@@ -9865,8 +9858,8 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
@@ -9893,19 +9886,19 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -9913,9 +9906,9 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
@@ -9923,10 +9916,10 @@
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
@@ -9953,40 +9946,44 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
+      <c r="AA26" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
+      <c r="AE26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
@@ -10012,40 +10009,38 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
-      <c r="AA27" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
@@ -10073,23 +10068,23 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
@@ -10133,37 +10128,37 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
@@ -10199,35 +10194,31 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
@@ -10263,35 +10254,33 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
+      <c r="Z31" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
@@ -10327,31 +10316,31 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
@@ -10387,31 +10376,31 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
@@ -10447,33 +10436,33 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
@@ -10509,31 +10498,33 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
+      <c r="AA35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
@@ -10578,12 +10569,12 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
       <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
@@ -10638,14 +10629,12 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
       <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
@@ -10737,23 +10726,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BF25" sqref="BF25"/>
+    <sheetView topLeftCell="A2" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" style="2" customWidth="1"/>
+    <col min="22" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5.58203125" style="2"/>
     <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
@@ -11189,6 +11180,2522 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BF5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BF6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+    </row>
+    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+    </row>
+    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+    </row>
+    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+    </row>
+    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+    </row>
+    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+    </row>
+    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+    </row>
+    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+    </row>
+    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+    </row>
+    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+    </row>
+    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+    </row>
+    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+    </row>
+    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+    </row>
+    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+    </row>
+    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+    </row>
+    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+    </row>
+    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+    </row>
+    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+    </row>
+    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+    </row>
+    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+    </row>
+    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+    </row>
+    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+    </row>
+    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+    </row>
+    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+    </row>
+    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+    </row>
+    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+    </row>
+    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+    </row>
+    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+    </row>
+    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+    </row>
+    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+    </row>
+    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+    </row>
+    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:BJ38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="BF25" sqref="BF25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.58203125" style="2"/>
+    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
+    <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
+    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BF2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BF3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BF4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -13252,7 +15759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BJ38"/>
@@ -15756,7 +18263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BJ38"/>
@@ -18272,7 +20779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:BJ38"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80E47C9-5FD9-4277-A02A-D18B97284551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62557CA-0A1A-4926-BD04-C8FDBF192D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map0" sheetId="8" r:id="rId1"/>
     <sheet name="Map1" sheetId="9" r:id="rId2"/>
-    <sheet name="Map1 (2)" sheetId="10" r:id="rId3"/>
-    <sheet name="Map00" sheetId="1" r:id="rId4"/>
+    <sheet name="Map2" sheetId="10" r:id="rId3"/>
+    <sheet name="Map3" sheetId="1" r:id="rId4"/>
     <sheet name="Map11" sheetId="2" r:id="rId5"/>
     <sheet name="Map22" sheetId="3" r:id="rId6"/>
     <sheet name="Map33" sheetId="4" r:id="rId7"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="32">
   <si>
     <t>Tile_Water</t>
   </si>
@@ -109,15 +109,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>E_B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>U</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>E_P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_B</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2161,7 +2173,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
@@ -2583,7 +2595,7 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
@@ -3065,7 +3077,7 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
@@ -5441,7 +5453,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
@@ -5723,7 +5735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A4D35B-FB9C-4020-A4CB-73CCFA17EEAE}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P22" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="P22" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
@@ -7453,10 +7465,10 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -7699,7 +7711,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4" t="s">
@@ -7763,10 +7775,10 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
@@ -7947,7 +7959,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
@@ -8230,8 +8242,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="E18" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9721,10 +9733,14 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
+      <c r="AB22" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
+      <c r="AE22" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="AF22" s="4"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
@@ -9834,11 +9850,15 @@
       <c r="R24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S24" s="4"/>
+      <c r="S24" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
+      <c r="W24" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -9893,8 +9913,12 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
+      <c r="R25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -9902,7 +9926,9 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
+      <c r="AA25" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -10079,7 +10105,9 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="T28" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="U28" s="4"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -10146,8 +10174,12 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
+      <c r="AA29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="AC29" s="4"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
@@ -10265,9 +10297,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
@@ -10387,7 +10417,9 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
+      <c r="Z33" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="AA33" s="4"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
@@ -10444,9 +10476,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62557CA-0A1A-4926-BD04-C8FDBF192D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38509768-899F-410F-872C-2449BE7814F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map0" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="33">
   <si>
     <t>Tile_Water</t>
   </si>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>E_B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -741,25 +745,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFE1B87-DEC1-4B1A-9003-6AA42CE0D50A}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BG28" sqref="BG28"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AW27" sqref="AW27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.58203125" style="2"/>
-    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.58203125" style="2"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -939,7 +943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1359,7 +1363,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1482,7 +1486,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1542,7 +1546,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1602,7 +1606,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1662,7 +1666,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1722,7 +1726,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1782,7 +1786,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1842,7 +1846,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1902,7 +1906,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1962,7 +1966,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2022,7 +2026,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2082,7 +2086,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2142,7 +2146,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2204,7 +2208,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2264,7 +2268,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2324,7 +2328,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2384,7 +2388,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2444,7 +2448,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2504,7 +2508,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2564,7 +2568,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2626,7 +2630,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2686,7 +2690,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2746,7 +2750,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2806,7 +2810,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2836,7 +2840,9 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
-      <c r="AB32" s="4"/>
+      <c r="AB32" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
@@ -2866,7 +2872,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2926,7 +2932,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2986,7 +2992,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3046,7 +3052,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3108,7 +3114,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3168,7 +3174,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3243,21 +3249,21 @@
       <selection activeCell="AT18" sqref="AT18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.58203125" style="2"/>
-    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.58203125" style="2"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -3437,7 +3443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3725,7 +3731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3857,7 +3863,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3980,7 +3986,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4040,7 +4046,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4100,7 +4106,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4160,7 +4166,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4220,7 +4226,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4280,7 +4286,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4340,7 +4346,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4402,7 +4408,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4462,7 +4468,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4522,7 +4528,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4582,7 +4588,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4642,7 +4648,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4702,7 +4708,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4762,7 +4768,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4822,7 +4828,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4882,7 +4888,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4942,7 +4948,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5002,7 +5008,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5062,7 +5068,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5122,7 +5128,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5182,7 +5188,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5242,7 +5248,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5302,7 +5308,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5362,7 +5368,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5422,7 +5428,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5484,7 +5490,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5544,7 +5550,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5604,7 +5610,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5664,7 +5670,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5739,21 +5745,21 @@
       <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.58203125" style="2"/>
-    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.58203125" style="2"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -5933,7 +5939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6005,7 +6011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6149,7 +6155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6221,7 +6227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6293,7 +6299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6353,7 +6359,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6416,7 +6422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6476,7 +6482,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6536,7 +6542,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6596,7 +6602,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6656,7 +6662,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6716,7 +6722,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6776,7 +6782,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6836,7 +6842,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6896,7 +6902,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6956,7 +6962,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7016,7 +7022,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7076,7 +7082,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7136,7 +7142,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7196,7 +7202,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7256,7 +7262,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7316,7 +7322,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7376,7 +7382,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7436,7 +7442,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7500,7 +7506,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7560,7 +7566,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7620,7 +7626,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7680,7 +7686,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7744,7 +7750,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7808,7 +7814,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7868,7 +7874,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7928,7 +7934,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7990,7 +7996,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8050,7 +8056,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8110,7 +8116,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8170,7 +8176,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8242,25 +8248,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView topLeftCell="I4" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="BI2" sqref="BI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.58203125" style="2"/>
-    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.58203125" style="2"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -8440,7 +8446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8512,7 +8518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8584,7 +8590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8656,7 +8662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8728,7 +8734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8800,7 +8806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8860,7 +8866,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8923,7 +8929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8983,7 +8989,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9043,7 +9049,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9103,7 +9109,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9163,7 +9169,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9223,7 +9229,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9283,7 +9289,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9343,7 +9349,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9403,7 +9409,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9463,7 +9469,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9523,7 +9529,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9583,7 +9589,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9643,7 +9649,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9703,7 +9709,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9767,7 +9773,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9827,7 +9833,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9893,7 +9899,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9959,7 +9965,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10023,7 +10029,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10083,7 +10089,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10145,7 +10151,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10209,7 +10215,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10269,7 +10275,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10329,7 +10335,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10389,7 +10395,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10451,7 +10457,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10511,7 +10517,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10573,7 +10579,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10633,7 +10639,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -10693,7 +10699,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -10769,23 +10775,23 @@
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="20" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" style="2" customWidth="1"/>
     <col min="22" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.58203125" style="2"/>
-    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.58203125" style="2"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -10965,7 +10971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11037,7 +11043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11109,7 +11115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11181,7 +11187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11253,7 +11259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11325,7 +11331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11385,7 +11391,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11445,7 +11451,7 @@
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -11509,7 +11515,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -11569,7 +11575,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -11629,7 +11635,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -11689,7 +11695,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -11749,7 +11755,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -11811,7 +11817,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -11871,7 +11877,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -11931,7 +11937,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -11991,7 +11997,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -12051,7 +12057,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -12111,7 +12117,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -12173,7 +12179,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -12237,7 +12243,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -12297,7 +12303,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -12357,7 +12363,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -12417,7 +12423,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -12477,7 +12483,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -12537,7 +12543,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -12599,7 +12605,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -12659,7 +12665,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -12719,7 +12725,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -12783,7 +12789,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -12847,7 +12853,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -12907,7 +12913,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -12967,7 +12973,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -13029,7 +13035,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -13089,7 +13095,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -13149,7 +13155,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -13211,7 +13217,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -13287,21 +13293,21 @@
       <selection activeCell="BF25" sqref="BF25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.58203125" style="2"/>
-    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.58203125" style="2"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -13481,7 +13487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -13553,7 +13559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -13625,7 +13631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -13697,7 +13703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -13769,7 +13775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -13841,7 +13847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -13901,7 +13907,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -13964,7 +13970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -14024,7 +14030,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -14088,7 +14094,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -14148,7 +14154,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -14208,7 +14214,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -14268,7 +14274,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -14332,7 +14338,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -14392,7 +14398,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -14452,7 +14458,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -14512,7 +14518,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -14572,7 +14578,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -14632,7 +14638,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -14692,7 +14698,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -14756,7 +14762,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -14816,7 +14822,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -14876,7 +14882,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -14936,7 +14942,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -14996,7 +15002,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -15060,7 +15066,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -15120,7 +15126,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -15180,7 +15186,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -15240,7 +15246,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -15300,7 +15306,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -15360,7 +15366,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -15420,7 +15426,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -15480,7 +15486,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -15542,7 +15548,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -15602,7 +15608,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -15662,7 +15668,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -15722,7 +15728,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -15798,21 +15804,21 @@
       <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="30" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.58203125" style="2"/>
-    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.58203125" style="2"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -15992,7 +15998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -16064,7 +16070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -16136,7 +16142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -16208,7 +16214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -16280,7 +16286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -16352,7 +16358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -16412,7 +16418,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -16472,7 +16478,7 @@
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -16532,7 +16538,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -16592,7 +16598,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -16652,7 +16658,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -16712,7 +16718,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -16772,7 +16778,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -16832,7 +16838,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -16892,7 +16898,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -16956,7 +16962,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -17016,7 +17022,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -17076,7 +17082,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -17140,7 +17146,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -17200,7 +17206,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -17260,7 +17266,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -17320,7 +17326,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -17380,7 +17386,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -17444,7 +17450,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -17504,7 +17510,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -17564,7 +17570,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -17624,7 +17630,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -17684,7 +17690,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -17744,7 +17750,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -17804,7 +17810,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -17864,7 +17870,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -17926,7 +17932,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -17986,7 +17992,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -18046,7 +18052,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -18106,7 +18112,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -18166,7 +18172,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -18226,7 +18232,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -18302,21 +18308,21 @@
       <selection activeCell="AY60" sqref="AY60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="30" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.58203125" style="2"/>
-    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.58203125" style="2"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -18496,7 +18502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -18568,7 +18574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -18640,7 +18646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -18712,7 +18718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -18784,7 +18790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -18856,7 +18862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -18916,7 +18922,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -18976,7 +18982,7 @@
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -19036,7 +19042,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -19100,7 +19106,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -19160,7 +19166,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -19220,7 +19226,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -19280,7 +19286,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -19340,7 +19346,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -19400,7 +19406,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -19462,7 +19468,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -19526,7 +19532,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -19588,7 +19594,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -19648,7 +19654,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -19708,7 +19714,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -19772,7 +19778,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -19832,7 +19838,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -19892,7 +19898,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -19952,7 +19958,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -20014,7 +20020,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -20074,7 +20080,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -20136,7 +20142,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -20196,7 +20202,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -20256,7 +20262,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -20322,7 +20328,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -20382,7 +20388,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -20442,7 +20448,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -20502,7 +20508,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -20562,7 +20568,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -20622,7 +20628,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -20682,7 +20688,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -20742,7 +20748,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -20818,21 +20824,21 @@
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="30" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.58203125" style="2"/>
-    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.625" style="2"/>
+    <col min="57" max="57" width="10.875" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
     <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
-    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="5.58203125" style="2"/>
+    <col min="60" max="60" width="10.875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -21012,7 +21018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -21084,7 +21090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -21156,7 +21162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -21228,7 +21234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -21300,7 +21306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -21372,7 +21378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -21432,7 +21438,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -21492,7 +21498,7 @@
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -21552,7 +21558,7 @@
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -21612,7 +21618,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -21672,7 +21678,7 @@
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -21732,7 +21738,7 @@
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -21792,7 +21798,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -21860,7 +21866,7 @@
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -21920,7 +21926,7 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -21980,7 +21986,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -22040,7 +22046,7 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -22100,7 +22106,7 @@
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -22160,7 +22166,7 @@
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -22220,7 +22226,7 @@
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -22280,7 +22286,7 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -22344,7 +22350,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -22404,7 +22410,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -22464,7 +22470,7 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -22524,7 +22530,7 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -22584,7 +22590,7 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -22644,7 +22650,7 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -22704,7 +22710,7 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -22764,7 +22770,7 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -22824,7 +22830,7 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -22890,7 +22896,7 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -22950,7 +22956,7 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -23010,7 +23016,7 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -23070,7 +23076,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -23130,7 +23136,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -23190,7 +23196,7 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -23250,7 +23256,7 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:56" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>

--- a/Assets/StreamingAssets/Map.xlsx
+++ b/Assets/StreamingAssets/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onlym\Desktop\프로그래밍\유니티 리포지토리\2024-Unity.Capstone\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA1E9B2-8B20-4209-B16F-4759C487AB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3783004-ED47-4ED4-BC44-D8E3FAFB0CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="2920" windowWidth="24700" windowHeight="12670" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map0" sheetId="8" r:id="rId1"/>
@@ -19,18 +19,19 @@
     <sheet name="Map3" sheetId="10" r:id="rId4"/>
     <sheet name="Map4" sheetId="1" r:id="rId5"/>
     <sheet name="Map5" sheetId="11" r:id="rId6"/>
-    <sheet name="Map11" sheetId="2" r:id="rId7"/>
-    <sheet name="Map22" sheetId="3" r:id="rId8"/>
-    <sheet name="Map33" sheetId="4" r:id="rId9"/>
-    <sheet name="Map44" sheetId="5" r:id="rId10"/>
-    <sheet name="Map55" sheetId="6" r:id="rId11"/>
+    <sheet name="Map6" sheetId="14" r:id="rId7"/>
+    <sheet name="Map7" sheetId="3" r:id="rId8"/>
+    <sheet name="Map8" sheetId="4" r:id="rId9"/>
+    <sheet name="Map9" sheetId="5" r:id="rId10"/>
+    <sheet name="Map10" sheetId="6" r:id="rId11"/>
+    <sheet name="Map99" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="46">
   <si>
     <t>Tile_Water</t>
   </si>
@@ -156,6 +157,38 @@
   </si>
   <si>
     <t>E_B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Turn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_C</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3301,7 +3334,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="AY60" sqref="AY60"/>
     </sheetView>
   </sheetViews>
@@ -5817,7 +5850,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="L6" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -8317,6 +8350,2524 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:BJ38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" style="2" customWidth="1"/>
+    <col min="22" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.58203125" style="2"/>
+    <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
+    <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
+    <col min="59" max="59" width="34.5" style="2" customWidth="1"/>
+    <col min="60" max="60" width="10.83203125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="25.08203125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="28.33203125" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="5.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BF2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BF3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BF4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BF5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BF6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+    </row>
+    <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+    </row>
+    <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+    </row>
+    <row r="10" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+    </row>
+    <row r="11" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+    </row>
+    <row r="12" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+    </row>
+    <row r="13" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+    </row>
+    <row r="14" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+    </row>
+    <row r="15" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+    </row>
+    <row r="16" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+    </row>
+    <row r="17" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+    </row>
+    <row r="18" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+    </row>
+    <row r="19" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+    </row>
+    <row r="20" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+    </row>
+    <row r="21" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+    </row>
+    <row r="22" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+    </row>
+    <row r="23" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+    </row>
+    <row r="24" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+    </row>
+    <row r="25" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+    </row>
+    <row r="26" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+    </row>
+    <row r="27" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+    </row>
+    <row r="28" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+    </row>
+    <row r="29" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+    </row>
+    <row r="30" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+    </row>
+    <row r="31" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+    </row>
+    <row r="32" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+    </row>
+    <row r="33" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+    </row>
+    <row r="34" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+    </row>
+    <row r="35" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+    </row>
+    <row r="36" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+    </row>
+    <row r="37" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+    </row>
+    <row r="38" spans="1:56" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -18416,7 +20967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76C3C83-1721-4B70-92DF-84051E7EE42B}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N24" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="N24" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="AF37" sqref="AF37"/>
     </sheetView>
   </sheetViews>
@@ -20919,20 +23470,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D95F09-A38F-4180-A713-459B521A8719}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AO33" sqref="AO33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6" style="2" customWidth="1"/>
-    <col min="22" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="55" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5.58203125" style="2"/>
     <col min="57" max="57" width="10.83203125" style="2" customWidth="1"/>
     <col min="58" max="58" width="29.25" style="2" customWidth="1"/>
@@ -21436,15 +23984,15 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
@@ -21477,10 +24025,10 @@
         <v>5</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -21508,15 +24056,15 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="4"/>
+      <c r="W7" s="3"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -21542,6 +24090,12 @@
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
+      <c r="BI7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -21568,22 +24122,22 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="4"/>
+      <c r="W8" s="3"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
@@ -21602,6 +24156,9 @@
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
+      <c r="BG8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -21629,30 +24186,26 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y9" s="3"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
@@ -21689,30 +24242,30 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="3"/>
+      <c r="Y10" s="4"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
@@ -21747,12 +24300,12 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
@@ -21760,20 +24313,20 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
@@ -21805,14 +24358,14 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
@@ -21820,25 +24373,25 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
       <c r="AX12" s="3"/>
       <c r="AY12" s="3"/>
       <c r="AZ12" s="3"/>
@@ -21865,14 +24418,14 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
@@ -21880,9 +24433,9 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
@@ -21891,13 +24444,13 @@
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
       <c r="AY13" s="3"/>
@@ -21924,25 +24477,23 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="3"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
-      <c r="AE14" s="3"/>
+      <c r="AE14" s="4"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
@@ -21954,10 +24505,10 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="3"/>
@@ -21985,20 +24536,20 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -22011,13 +24562,13 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
       <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="3"/>
@@ -22043,45 +24594,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
+      <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
+      <c r="AH16" s="4"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
+      <c r="AJ16" s="4"/>
       <c r="AK16" s="3"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
       <c r="AY16" s="3"/>
       <c r="AZ16" s="3"/>
       <c r="BA16" s="3"/>
@@ -22102,15 +24653,15 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -22121,27 +24672,27 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="4"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
       <c r="AY17" s="3"/>
       <c r="AZ17" s="3"/>
       <c r="BA17" s="3"/>
@@ -22162,15 +24713,15 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
@@ -22181,27 +24732,27 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
+      <c r="AQ18" s="4"/>
       <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
       <c r="AY18" s="3"/>
       <c r="AZ18" s="3"/>
       <c r="BA18" s="3"/>
@@ -22222,28 +24773,30 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="3"/>
+      <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="3"/>
+      <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="3"/>
+      <c r="AB19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="3"/>
+      <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
@@ -22252,18 +24805,18 @@
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BC19" s="3"/>
@@ -22281,52 +24834,56 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
+      <c r="W20" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
+      <c r="Y20" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
+      <c r="AF20" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
       <c r="BB20" s="3"/>
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
@@ -22348,17 +24905,15 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -22366,9 +24921,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
-      <c r="AE21" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
@@ -22378,18 +24931,18 @@
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
       <c r="AN21" s="4"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
       <c r="BA21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BC21" s="3"/>
@@ -22412,44 +24965,50 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="X22" s="4"/>
-      <c r="Y22" s="3"/>
+      <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="3"/>
+      <c r="AB22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="3"/>
+      <c r="AF22" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
       <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
+      <c r="AZ22" s="4"/>
       <c r="BA22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BC22" s="3"/>
@@ -22472,13 +25031,13 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="4"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -22492,24 +25051,26 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
+      <c r="AI23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
+      <c r="AZ23" s="4"/>
       <c r="BA23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BC23" s="3"/>
@@ -22532,45 +25093,49 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
+      <c r="AD24" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
+      <c r="AF24" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
       <c r="BB24" s="3"/>
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
@@ -22601,37 +25166,47 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="3"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
     </row>
@@ -22661,14 +25236,14 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="4"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
@@ -22681,17 +25256,17 @@
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
     </row>
@@ -22721,39 +25296,37 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="4"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="3"/>
-      <c r="BA27" s="3"/>
-      <c r="BB27" s="3"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
     </row>
@@ -22783,14 +25356,14 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="4"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
@@ -22799,21 +25372,21 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
+      <c r="AN28" s="4"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
     </row>
@@ -22834,43 +25407,43 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
       <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="4"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
       <c r="AZ29" s="3"/>
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
@@ -22894,47 +25467,45 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="3"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
-      <c r="AW30" s="3"/>
-      <c r="AX30" s="3"/>
-      <c r="AY30" s="3"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="4"/>
+      <c r="AY30" s="4"/>
       <c r="AZ30" s="3"/>
       <c r="BA30" s="3"/>
       <c r="BB30" s="3"/>
@@ -22958,35 +25529,33 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
@@ -22994,10 +25563,10 @@
       <c r="AR31" s="3"/>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3"/>
-      <c r="AU31" s="3"/>
-      <c r="AV31" s="3"/>
-      <c r="AW31" s="3"/>
-      <c r="AX31" s="3"/>
+      <c r="AU31" s="4"/>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="4"/>
       <c r="AY31" s="3"/>
       <c r="AZ31" s="3"/>
       <c r="BA31" s="3"/>
@@ -23022,31 +25591,33 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
@@ -23082,31 +25653,33 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
@@ -23142,33 +25715,33 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
@@ -23204,31 +25777,31 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
       <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
@@ -23273,14 +25846,14 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
+      <c r="AE36" s="4"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
@@ -23333,16 +25906,16 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
+      <c r="AE37" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
@@ -23432,7 +26005,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23441,8 +26014,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BF25" sqref="BF25"/>
+    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="35.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -24058,6 +26631,12 @@
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
+      <c r="BI7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:62" ht="35.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -24209,9 +26788,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="Y10" s="9"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="3"/>
@@ -24223,9 +26800,7 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
-      <c r="AK10" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="AK10" s="9"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
@@ -24397,11 +26972,21 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
+      <c r="AC13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
@@ -24451,27 +27036,33 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="W14" s="9"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
+      <c r="AC14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
@@ -24522,9 +27113,11 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
+      <c r="AD15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -24582,9 +27175,9 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
@@ -24640,13 +27233,17 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
+      <c r="AB17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
+      <c r="AH17" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
@@ -24759,9 +27356,15 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
+      <c r="AA19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
@@ -24819,15 +27422,25 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
+      <c r="AA20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
+      <c r="AH20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="4"/>
@@ -24875,9 +27488,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
@@ -24888,14 +27499,16 @@
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
+      <c r="AH21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI21" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="AM21" s="9"/>
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
@@ -24947,7 +27560,9 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
+      <c r="AE22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
@@ -25177,9 +27792,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="U26" s="9"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="3"/>
@@ -25199,9 +27812,7 @@
       <c r="AL26" s="3"/>
       <c r="AM26" s="4"/>
       <c r="AN26" s="4"/>
-      <c r="AO26" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="AO26" s="9"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="3"/>
@@ -25671,9 +28282,7 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
-      <c r="AE34" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE34" s="9"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
@@ -25952,7 +28561,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="30" zoomScaleNormal="30" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="N14" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
